--- a/Documentos/Planes/ZP/ZP-CP.XLSX
+++ b/Documentos/Planes/ZP/ZP-CP.XLSX
@@ -10,19 +10,38 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataSignature="AMtx7mgjRCdHYIEeIjZQwKp8Q1+FJ8S96Q=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataSignature="AMtx7miGverispJSdKrmaHgXxzh7C4Lkyg=="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="134">
   <si>
     <t>CRONOGRAMA DEL PROYECTO</t>
   </si>
   <si>
-    <t xml:space="preserve">Ruta del repositorio Github:  </t>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <i/>
+        <color rgb="FFFFFFFF"/>
+        <sz val="10.0"/>
+      </rPr>
+      <t xml:space="preserve">Ruta del repositorio GitHub:  </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <i/>
+        <color rgb="FFFFFFFF"/>
+        <sz val="10.0"/>
+      </rPr>
+      <t>https://github.com/estiven1312/Wilson-Devs</t>
+    </r>
   </si>
   <si>
     <t>Grupo:</t>
@@ -31,7 +50,10 @@
     <t>Proyecto:</t>
   </si>
   <si>
-    <t>Zorrito PLUS: Sistema Web de venta de perfiles de plataformas de Streaming</t>
+    <t>Zorrito Plus: Sitio web de venta de perfiles de plataformas de streaming</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     </t>
   </si>
   <si>
     <t>Enfoque de desarrollo:</t>
@@ -67,45 +89,28 @@
     <t>% de Avance</t>
   </si>
   <si>
-    <t>Reunión con el Stakeholder - FOX Streaming</t>
+    <t>Reunión con los Stakeholders - FOX Streaming</t>
   </si>
   <si>
     <t>-</t>
   </si>
   <si>
-    <t>Jefe de Proyecto</t>
+    <t>Llactahuaman/LP-DUI</t>
   </si>
   <si>
-    <t>Idear Proyecto innovador</t>
+    <t>Idear proyecto innovador</t>
   </si>
   <si>
-    <t>Todos</t>
+    <t>Blas M./DB, Blas J./ABD, Hurtado/DB, Llactahuaman/LP-DUI, López/ABD, Martinez/DF, Mondragón/ABD y Morales/DF-DUI</t>
   </si>
   <si>
-    <t>Desarrollar del Plan de Proyecto</t>
+    <t>Desarrollar del Plan del Proyecto</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <rFont val="Helvetica Neue"/>
-        <i/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t xml:space="preserve">Plan de Proyecto </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Helvetica Neue"/>
-        <i/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t>(PROJECT CHARTER)</t>
-    </r>
+    <t>Plan del Proyecto (PROJECT CHARTER)</t>
   </si>
   <si>
-    <t>ZP-PC.DOC</t>
+    <t>ZP-PC.DOCX</t>
   </si>
   <si>
     <t>Elaborar Cronograma del Proyecto</t>
@@ -120,11 +125,10 @@
     <t>Crear repositorio del proyecto</t>
   </si>
   <si>
-    <t xml:space="preserve">Repositorio GitHub
-</t>
+    <t>Repositorio GitHub</t>
   </si>
   <si>
-    <t>Desarrolladores Frontend</t>
+    <t>Hurtado/DB</t>
   </si>
   <si>
     <t>Realizar Historias de Usuario</t>
@@ -145,7 +149,49 @@
     <t>ZP-DER.DOC</t>
   </si>
   <si>
-    <t>Desarrolladores Backend</t>
+    <t>Blas M./DB, Hurtado/DB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Requisitos de Software 01</t>
+  </si>
+  <si>
+    <t>ZP-DER-01.DOC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Requisitos de Software 02</t>
+  </si>
+  <si>
+    <t>ZP-DER-02.DOC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Requisitos de Software 03</t>
+  </si>
+  <si>
+    <t>ZP-DER-03.DOC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Requisitos de Software 04</t>
+  </si>
+  <si>
+    <t>ZP-DER-04.DOC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Requisitos de Software 05</t>
+  </si>
+  <si>
+    <t>ZP-DER-05.DOC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Requisitos de Software 06</t>
+  </si>
+  <si>
+    <t>ZP-DER-06.DOC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Requisitos de Software 07</t>
+  </si>
+  <si>
+    <t>ZP-DER-07.DOC</t>
   </si>
   <si>
     <t>Proponer el diseño inicial de la Interface Web (UI)</t>
@@ -157,6 +203,9 @@
     <t>ZP-DEU.DOC</t>
   </si>
   <si>
+    <t>Martinez/DF, Morales/DF-DUI</t>
+  </si>
+  <si>
     <t>Establecer estilos para la web</t>
   </si>
   <si>
@@ -166,7 +215,7 @@
     <t>ZP-DGE.DOC</t>
   </si>
   <si>
-    <t>Especificar el diseño de la Base de Datos</t>
+    <t>Especificar el diseño del modelo de la Base de Datos</t>
   </si>
   <si>
     <t>Documento de Especificación de la BD</t>
@@ -175,7 +224,7 @@
     <t>ZP-DEB.DOC</t>
   </si>
   <si>
-    <t>Administrador de Base de Datos</t>
+    <t>López/ABD, Mondragón/ABD</t>
   </si>
   <si>
     <t>Especificar la Arquitectura y Diseño del Software</t>
@@ -193,13 +242,16 @@
     <t>Reporte del Desarrollo del Software</t>
   </si>
   <si>
-    <t>Desarrolladores Frontend - Backend - Analista de Datos</t>
+    <t>Blas M./DB, Hurtado/DB, Martinez/DF, Morales/DF-DUI</t>
   </si>
   <si>
     <t>Realizar Sprint Retrospective</t>
   </si>
   <si>
     <t>Reporte del Primer Sprint</t>
+  </si>
+  <si>
+    <t>SR.XLSX</t>
   </si>
   <si>
     <t>Linea base 1</t>
@@ -217,13 +269,7 @@
     <t>Verificar y Actualizar documento de Especificación de UI</t>
   </si>
   <si>
-    <t xml:space="preserve">Desarrolladores Frontend-Diseñador </t>
-  </si>
-  <si>
     <t>Verificar y Actualizar documento de Especificación de la Base de Datos</t>
-  </si>
-  <si>
-    <t>Analistas de Base de Datos</t>
   </si>
   <si>
     <t>Codificar HU_01 - Modular Página de Inicio</t>
@@ -232,13 +278,16 @@
     <t>Módulo de Página de Inicio</t>
   </si>
   <si>
+    <t>ZP-MPI.RAR</t>
+  </si>
+  <si>
     <t>Codificar HU_02 - Modular Registro de Usuario Cliente (para cliente)</t>
   </si>
   <si>
     <t>Módulo de Registro</t>
   </si>
   <si>
-    <t>Desarrolladores Frontend - Backend</t>
+    <t>ZP-MDR.RAR</t>
   </si>
   <si>
     <t>Codificar HU_03 - Modular Inicio de sesión de Usuario Cliente (para cliente)</t>
@@ -247,13 +296,19 @@
     <t>Módulo de Cliente</t>
   </si>
   <si>
+    <t>ZP-MDC.RAR</t>
+  </si>
+  <si>
     <t>Codificar HU_04 - Modular Inicio de sesión de Usuario Administrador (para administrador)</t>
   </si>
   <si>
     <t>Módulo de Administrador</t>
   </si>
   <si>
-    <t>Desarrolladores Frontend - Backend - Analista de Base de Datos</t>
+    <t>ZP-MDA.RAR</t>
+  </si>
+  <si>
+    <t>Blas M./DB, Hurtado/DB, López/ABD, Martinez/DF, Morales/DF-DUI</t>
   </si>
   <si>
     <t>Reporte del Segundo Sprint</t>
@@ -301,10 +356,16 @@
     <t>Manual de usuario</t>
   </si>
   <si>
+    <t>ZP-MDE.DOC</t>
+  </si>
+  <si>
     <t>Realizar Pruebas finales del Software</t>
   </si>
   <si>
     <t>Documento de Pruebas del Software</t>
+  </si>
+  <si>
+    <t>ZP-DDPS.DOC</t>
   </si>
   <si>
     <t>Reporte del Tercer Sprint</t>
@@ -316,6 +377,9 @@
     <t>Acta de cierre del proyecto</t>
   </si>
   <si>
+    <t>ZP-ACP.DOC</t>
+  </si>
+  <si>
     <t>Linea base 3</t>
   </si>
   <si>
@@ -325,7 +389,7 @@
     <t>Hito 3 Terminado</t>
   </si>
   <si>
-    <t>Herramienta: Github</t>
+    <t>Herramienta: GitHub</t>
   </si>
   <si>
     <t>GRUPO 4</t>
@@ -337,34 +401,34 @@
     <t>Rol</t>
   </si>
   <si>
+    <t>Blas Juarez, Marx Johan Cristopher</t>
+  </si>
+  <si>
+    <t>Desarrollador Back-End (DB)</t>
+  </si>
+  <si>
     <t>Blas Muñoa, Joao Lestter</t>
   </si>
   <si>
-    <t>Administrador de base de datos</t>
+    <t>Administrador de Base de Datos (ABD)</t>
   </si>
   <si>
     <t>Hurtado Santos, Estiven Salvador</t>
   </si>
   <si>
-    <t>Desarrollador Backend</t>
-  </si>
-  <si>
     <t>Llactahuaman Muguerza, Anthony Joel</t>
   </si>
   <si>
-    <t>Líder del proyecto</t>
+    <t>Líder del proyecto (LP) -  Diseñador UI (DUI)</t>
   </si>
   <si>
     <t>López Terrones, Xiomy Ximena</t>
   </si>
   <si>
-    <t>Desarrollador Frontend - UX</t>
-  </si>
-  <si>
     <t>Martinez Santos, Luz Cristina</t>
   </si>
   <si>
-    <t>Desarrolladora Frontend</t>
+    <t>Desarrolladora Front-End (DF)</t>
   </si>
   <si>
     <t>Mondragón Zúñiga, Rubén Alberto</t>
@@ -373,7 +437,7 @@
     <t>Morales Robladillo, Nicole Maria</t>
   </si>
   <si>
-    <t>Desrrolladora Frontend - Diseñadora</t>
+    <t>Desrrolladora Front-End (DF) - Diseñadora UI (DUI)</t>
   </si>
 </sst>
 </file>
@@ -384,7 +448,7 @@
     <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="27">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -468,6 +532,11 @@
     </font>
     <font>
       <b/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <b/>
       <sz val="10.0"/>
       <color theme="1"/>
       <name val="Helvetica Neue"/>
@@ -533,7 +602,7 @@
       <name val="Montserrat"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -566,8 +635,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF6B26B"/>
-        <bgColor rgb="FFF6B26B"/>
+        <fgColor rgb="FFD1D141"/>
+        <bgColor rgb="FFD1D141"/>
       </patternFill>
     </fill>
     <fill>
@@ -576,14 +645,20 @@
         <bgColor rgb="FFFFD966"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF6B26B"/>
+        <bgColor rgb="FFF6B26B"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="32">
+  <borders count="33">
     <border/>
     <border>
-      <left style="thin">
+      <left style="thick">
         <color rgb="FF000000"/>
       </left>
-      <top style="thin">
+      <top style="thick">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
@@ -591,12 +666,34 @@
       </bottom>
     </border>
     <border>
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF000000"/>
+      </left>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
-      <top style="thin">
+      <bottom style="thin">
         <color rgb="FF000000"/>
-      </top>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
@@ -746,14 +843,6 @@
       </bottom>
     </border>
     <border>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
@@ -778,6 +867,22 @@
       </bottom>
     </border>
     <border>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
@@ -787,14 +892,6 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
@@ -815,6 +912,17 @@
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
@@ -895,28 +1003,6 @@
       </bottom>
     </border>
     <border>
-      <left style="thick">
-        <color rgb="FF000000"/>
-      </left>
-      <top style="thick">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <right style="thick">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thick">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
       <right style="thick">
         <color rgb="FF000000"/>
       </right>
@@ -931,7 +1017,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="98">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -966,16 +1052,25 @@
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="4" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf borderId="4" fillId="4" fontId="8" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" readingOrder="0" vertical="center"/>
-    </xf>
     <xf borderId="5" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf borderId="6" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="6" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf borderId="6" fillId="4" fontId="8" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="7" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="8" fillId="4" fontId="8" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -987,206 +1082,227 @@
     <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="7" fillId="5" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="9" fillId="5" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="8" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="9" fillId="5" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="8" fillId="5" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="10" fillId="5" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
+    <xf borderId="10" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="11" fillId="5" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="12" fillId="3" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="10" fillId="5" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="12" fillId="5" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="13" fillId="5" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="14" fillId="3" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="13" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="14" fillId="4" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf borderId="15" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="16" fillId="4" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="15" fillId="4" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf borderId="16" fillId="4" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="17" fillId="4" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="14" fillId="4" fontId="13" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="16" fillId="4" fontId="13" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="17" fillId="6" fontId="13" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="18" fillId="6" fontId="13" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="12" fillId="3" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
+    <xf borderId="16" fillId="4" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="15" fillId="4" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="19" fillId="4" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="13" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="17" fillId="7" fontId="13" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="14" fillId="3" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="16" fillId="4" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf borderId="19" fillId="4" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="12" fillId="3" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="17" fillId="4" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="15" fillId="4" fontId="13" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="15" fillId="4" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf borderId="18" fillId="7" fontId="13" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="20" fillId="3" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="14" fillId="4" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="19" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="14" fillId="3" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="16" fillId="4" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="15" fillId="4" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="19" fillId="4" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="18" fillId="8" fontId="13" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="12" fillId="5" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="14" fillId="5" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="14" fillId="5" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="16" fillId="5" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="15" fillId="5" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="19" fillId="5" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="16" fillId="5" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="17" fillId="5" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="14" fillId="5" fontId="17" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="16" fillId="5" fontId="18" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="17" fillId="5" fontId="17" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="18" fillId="5" fontId="18" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf borderId="12" fillId="3" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="14" fillId="3" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="14" fillId="4" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="14" fillId="3" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="16" fillId="4" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="18" fillId="3" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="21" fillId="3" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="15" fillId="3" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="19" fillId="3" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="19" fillId="3" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="0" fillId="4" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="20" fillId="3" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="15" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="14" fillId="4" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="16" fillId="4" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="15" fillId="4" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="19" fillId="4" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="20" fillId="3" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="22" fillId="3" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="13" fillId="3" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="15" fillId="3" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="16" fillId="5" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="17" fillId="5" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="17" fillId="5" fontId="21" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="18" fillId="5" fontId="22" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="12" fillId="3" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="15" fillId="4" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf borderId="15" fillId="4" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf borderId="21" fillId="3" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="21" fillId="3" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="22" fillId="4" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf borderId="2" fillId="4" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf borderId="23" fillId="2" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="23" fillId="3" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf borderId="24" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="25" fillId="2" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="23" fillId="3" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="25" fillId="4" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf borderId="24" fillId="4" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="26" fillId="2" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="27" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="28" fillId="2" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="26" fillId="2" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="29" fillId="2" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="27" fillId="2" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="30" fillId="2" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="25" fillId="2" fontId="17" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="28" fillId="2" fontId="18" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="28" fillId="2" fontId="21" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="31" fillId="2" fontId="22" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="25" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="29" fillId="2" fontId="25" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="2" fontId="26" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="30" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="3" fillId="3" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="5" fillId="3" fontId="25" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="4" fillId="3" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="6" fillId="3" fontId="25" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="3" fillId="4" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="4" fillId="4" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="5" fillId="4" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="31" fillId="4" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="6" fillId="4" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="7" fillId="4" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="32" fillId="4" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="5">
     <dxf>
       <font/>
       <fill>
@@ -1197,7 +1313,56 @@
       </fill>
       <border/>
     </dxf>
+    <dxf>
+      <font/>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <border/>
+    </dxf>
+    <dxf>
+      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFBDBDBD"/>
+          <bgColor rgb="FFBDBDBD"/>
+        </patternFill>
+      </fill>
+      <border/>
+    </dxf>
+    <dxf>
+      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFFFF"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <border/>
+    </dxf>
+    <dxf>
+      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF3F3F3"/>
+          <bgColor rgb="FFF3F3F3"/>
+        </patternFill>
+      </fill>
+      <border/>
+    </dxf>
   </dxfs>
+  <tableStyles count="2">
+    <tableStyle count="3" pivot="0" name="Cronograma #1-style">
+      <tableStyleElement dxfId="2" type="headerRow"/>
+      <tableStyleElement dxfId="3" type="firstRowStripe"/>
+      <tableStyleElement dxfId="4" type="secondRowStripe"/>
+    </tableStyle>
+    <tableStyle count="3" pivot="0" name="Cronograma #1-style 2">
+      <tableStyleElement dxfId="2" type="headerRow"/>
+      <tableStyleElement dxfId="3" type="firstRowStripe"/>
+      <tableStyleElement dxfId="4" type="secondRowStripe"/>
+    </tableStyle>
+  </tableStyles>
 </styleSheet>
 </file>
 
@@ -1207,6 +1372,34 @@
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="I16" displayName="Table_1" id="1">
+  <tableColumns count="1">
+    <tableColumn name="Column1" id="1"/>
+  </tableColumns>
+  <tableStyleInfo name="Cronograma #1-style" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
+  <extLst>
+    <ext uri="GoogleSheetsCustomDataVersion1">
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" headerRowCount="1"/>
+    </ext>
+  </extLst>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="I18:I21" displayName="Table_2" id="2">
+  <tableColumns count="1">
+    <tableColumn name="Column1" id="1"/>
+  </tableColumns>
+  <tableStyleInfo name="Cronograma #1-style 2" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
+  <extLst>
+    <ext uri="GoogleSheetsCustomDataVersion1">
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" headerRowCount="1"/>
+    </ext>
+  </extLst>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1419,7 +1612,7 @@
     <col customWidth="1" min="3" max="3" width="47.0"/>
     <col customWidth="1" min="4" max="4" width="34.38"/>
     <col customWidth="1" min="5" max="5" width="14.88"/>
-    <col customWidth="1" min="6" max="6" width="53.38"/>
+    <col customWidth="1" min="6" max="6" width="99.75"/>
     <col customWidth="1" min="7" max="8" width="10.38"/>
     <col customWidth="1" min="9" max="9" width="14.38"/>
     <col customWidth="1" min="10" max="10" width="7.75"/>
@@ -1537,13 +1730,15 @@
     </row>
     <row r="5" ht="31.5" customHeight="1">
       <c r="A5" s="3"/>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="11"/>
+      <c r="F5" s="14" t="s">
+        <v>5</v>
+      </c>
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
       <c r="I5" s="8"/>
@@ -1567,11 +1762,11 @@
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="3"/>
-      <c r="B6" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="12" t="s">
+      <c r="B6" s="12" t="s">
         <v>6</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>7</v>
       </c>
       <c r="F6" s="11"/>
       <c r="G6" s="7"/>
@@ -1597,10 +1792,10 @@
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="3"/>
-      <c r="B7" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="13">
+      <c r="B7" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="16">
         <v>44816.0</v>
       </c>
       <c r="F7" s="11"/>
@@ -1627,10 +1822,10 @@
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="3"/>
-      <c r="B8" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="15">
+      <c r="B8" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="18">
         <v>44886.0</v>
       </c>
       <c r="F8" s="11"/>
@@ -1656,15 +1851,15 @@
       <c r="Z8" s="2"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="16"/>
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
+      <c r="A9" s="19"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
@@ -1684,28 +1879,28 @@
       <c r="Z9" s="2"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="16"/>
-      <c r="B10" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="20"/>
-      <c r="D10" s="21" t="s">
+      <c r="A10" s="19"/>
+      <c r="B10" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="22" t="s">
+      <c r="C10" s="23"/>
+      <c r="D10" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="F10" s="23" t="s">
+      <c r="E10" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="G10" s="21" t="s">
+      <c r="F10" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="H10" s="21" t="s">
+      <c r="G10" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="I10" s="24" t="s">
+      <c r="H10" s="24" t="s">
         <v>15</v>
+      </c>
+      <c r="I10" s="27" t="s">
+        <v>16</v>
       </c>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
@@ -1726,33 +1921,35 @@
       <c r="Z10" s="2"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="16"/>
-      <c r="B11" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="26"/>
-      <c r="D11" s="27" t="s">
+      <c r="A11" s="19"/>
+      <c r="B11" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="E11" s="28"/>
-      <c r="F11" s="29" t="s">
+      <c r="C11" s="29"/>
+      <c r="D11" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="G11" s="30">
+      <c r="E11" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11" s="32">
         <v>44816.0</v>
       </c>
-      <c r="H11" s="30">
-        <v>44823.0</v>
-      </c>
-      <c r="I11" s="31">
+      <c r="H11" s="32">
+        <v>44816.0</v>
+      </c>
+      <c r="I11" s="33">
         <v>1.0</v>
       </c>
       <c r="J11" s="11"/>
-      <c r="K11" s="32"/>
-      <c r="L11" s="32"/>
-      <c r="M11" s="32"/>
-      <c r="N11" s="32"/>
-      <c r="O11" s="32"/>
+      <c r="K11" s="34"/>
+      <c r="L11" s="34"/>
+      <c r="M11" s="34"/>
+      <c r="N11" s="34"/>
+      <c r="O11" s="34"/>
       <c r="P11" s="2"/>
       <c r="Q11" s="2"/>
       <c r="R11" s="2"/>
@@ -1766,33 +1963,35 @@
       <c r="Z11" s="2"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="16"/>
-      <c r="B12" s="33" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" s="26"/>
-      <c r="D12" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="E12" s="28"/>
-      <c r="F12" s="29" t="s">
+      <c r="A12" s="19"/>
+      <c r="B12" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="G12" s="30">
+      <c r="C12" s="29"/>
+      <c r="D12" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="G12" s="32">
         <v>44816.0</v>
       </c>
-      <c r="H12" s="30">
+      <c r="H12" s="32">
         <v>44823.0</v>
       </c>
-      <c r="I12" s="31">
+      <c r="I12" s="33">
         <v>1.0</v>
       </c>
       <c r="J12" s="11"/>
-      <c r="K12" s="32"/>
-      <c r="L12" s="32"/>
-      <c r="M12" s="32"/>
-      <c r="N12" s="32"/>
-      <c r="O12" s="32"/>
+      <c r="K12" s="34"/>
+      <c r="L12" s="34"/>
+      <c r="M12" s="34"/>
+      <c r="N12" s="34"/>
+      <c r="O12" s="34"/>
       <c r="P12" s="2"/>
       <c r="Q12" s="2"/>
       <c r="R12" s="2"/>
@@ -1806,35 +2005,35 @@
       <c r="Z12" s="2"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="16"/>
-      <c r="B13" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" s="26"/>
-      <c r="D13" s="27" t="s">
+      <c r="A13" s="19"/>
+      <c r="B13" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="E13" s="34" t="s">
+      <c r="C13" s="29"/>
+      <c r="D13" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="F13" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="G13" s="30">
+      <c r="E13" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="G13" s="32">
         <v>44816.0</v>
       </c>
-      <c r="H13" s="30">
+      <c r="H13" s="32">
         <v>44823.0</v>
       </c>
-      <c r="I13" s="31">
+      <c r="I13" s="33">
         <v>1.0</v>
       </c>
-      <c r="J13" s="35"/>
-      <c r="K13" s="32"/>
-      <c r="L13" s="32"/>
-      <c r="M13" s="32"/>
-      <c r="N13" s="32"/>
-      <c r="O13" s="32"/>
+      <c r="J13" s="37"/>
+      <c r="K13" s="34"/>
+      <c r="L13" s="34"/>
+      <c r="M13" s="34"/>
+      <c r="N13" s="34"/>
+      <c r="O13" s="34"/>
       <c r="P13" s="2"/>
       <c r="Q13" s="2"/>
       <c r="R13" s="2"/>
@@ -1848,35 +2047,35 @@
       <c r="Z13" s="2"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="16"/>
-      <c r="B14" s="33" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" s="26"/>
-      <c r="D14" s="27" t="s">
+      <c r="A14" s="19"/>
+      <c r="B14" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="E14" s="34" t="s">
+      <c r="C14" s="29"/>
+      <c r="D14" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="F14" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="G14" s="30">
+      <c r="E14" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="F14" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="G14" s="32">
         <v>44823.0</v>
       </c>
-      <c r="H14" s="30">
-        <v>44823.0</v>
-      </c>
-      <c r="I14" s="31">
+      <c r="H14" s="32">
+        <v>44830.0</v>
+      </c>
+      <c r="I14" s="33">
         <v>1.0</v>
       </c>
       <c r="J14" s="11"/>
-      <c r="K14" s="32"/>
-      <c r="L14" s="32"/>
-      <c r="M14" s="32"/>
-      <c r="N14" s="32"/>
-      <c r="O14" s="32"/>
+      <c r="K14" s="34"/>
+      <c r="L14" s="34"/>
+      <c r="M14" s="34"/>
+      <c r="N14" s="34"/>
+      <c r="O14" s="34"/>
       <c r="P14" s="2"/>
       <c r="Q14" s="2"/>
       <c r="R14" s="2"/>
@@ -1890,33 +2089,35 @@
       <c r="Z14" s="2"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="16"/>
-      <c r="B15" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="C15" s="26"/>
-      <c r="D15" s="27" t="s">
+      <c r="A15" s="19"/>
+      <c r="B15" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="E15" s="28"/>
-      <c r="F15" s="29" t="s">
+      <c r="C15" s="29"/>
+      <c r="D15" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="G15" s="30">
-        <v>44816.0</v>
-      </c>
-      <c r="H15" s="30">
-        <v>44823.0</v>
-      </c>
-      <c r="I15" s="36">
-        <v>0.5</v>
+      <c r="E15" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="F15" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="32">
+        <v>44830.0</v>
+      </c>
+      <c r="H15" s="32">
+        <v>44837.0</v>
+      </c>
+      <c r="I15" s="33">
+        <v>1.0</v>
       </c>
       <c r="J15" s="11"/>
-      <c r="K15" s="32"/>
-      <c r="L15" s="32"/>
-      <c r="M15" s="32"/>
-      <c r="N15" s="32"/>
-      <c r="O15" s="32"/>
+      <c r="K15" s="34"/>
+      <c r="L15" s="34"/>
+      <c r="M15" s="34"/>
+      <c r="N15" s="34"/>
+      <c r="O15" s="34"/>
       <c r="P15" s="2"/>
       <c r="Q15" s="2"/>
       <c r="R15" s="2"/>
@@ -1930,35 +2131,35 @@
       <c r="Z15" s="2"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="16"/>
-      <c r="B16" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="C16" s="26"/>
-      <c r="D16" s="27" t="s">
+      <c r="A16" s="19"/>
+      <c r="B16" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="E16" s="34" t="s">
+      <c r="C16" s="29"/>
+      <c r="D16" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="F16" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="G16" s="30">
+      <c r="E16" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="F16" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="G16" s="32">
         <v>44823.0</v>
       </c>
-      <c r="H16" s="30">
+      <c r="H16" s="32">
         <v>44828.0</v>
       </c>
-      <c r="I16" s="31">
+      <c r="I16" s="33">
         <v>1.0</v>
       </c>
-      <c r="J16" s="35"/>
-      <c r="K16" s="32"/>
-      <c r="L16" s="32"/>
-      <c r="M16" s="32"/>
-      <c r="N16" s="32"/>
-      <c r="O16" s="32"/>
+      <c r="J16" s="37"/>
+      <c r="K16" s="34"/>
+      <c r="L16" s="34"/>
+      <c r="M16" s="34"/>
+      <c r="N16" s="34"/>
+      <c r="O16" s="34"/>
       <c r="P16" s="2"/>
       <c r="Q16" s="2"/>
       <c r="R16" s="2"/>
@@ -1972,35 +2173,35 @@
       <c r="Z16" s="2"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="16"/>
-      <c r="B17" s="33" t="s">
-        <v>33</v>
-      </c>
-      <c r="C17" s="26"/>
-      <c r="D17" s="27" t="s">
+      <c r="A17" s="19"/>
+      <c r="B17" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="E17" s="34" t="s">
+      <c r="C17" s="29"/>
+      <c r="D17" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="F17" s="29" t="s">
+      <c r="E17" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="G17" s="30">
+      <c r="F17" s="41" t="s">
+        <v>37</v>
+      </c>
+      <c r="G17" s="42">
         <v>44823.0</v>
       </c>
-      <c r="H17" s="30">
+      <c r="H17" s="32">
         <v>44830.0</v>
       </c>
-      <c r="I17" s="36">
-        <v>0.5</v>
-      </c>
-      <c r="J17" s="35"/>
-      <c r="K17" s="32"/>
-      <c r="L17" s="32"/>
-      <c r="M17" s="32"/>
-      <c r="N17" s="32"/>
-      <c r="O17" s="32"/>
+      <c r="I17" s="33">
+        <v>0.8</v>
+      </c>
+      <c r="J17" s="37"/>
+      <c r="K17" s="34"/>
+      <c r="L17" s="34"/>
+      <c r="M17" s="34"/>
+      <c r="N17" s="34"/>
+      <c r="O17" s="34"/>
       <c r="P17" s="2"/>
       <c r="Q17" s="2"/>
       <c r="R17" s="2"/>
@@ -2014,35 +2215,35 @@
       <c r="Z17" s="2"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="16"/>
-      <c r="B18" s="33" t="s">
+      <c r="A18" s="43"/>
+      <c r="B18" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="29"/>
+      <c r="D18" s="44" t="s">
+        <v>35</v>
+      </c>
+      <c r="E18" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="F18" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="C18" s="26"/>
-      <c r="D18" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="E18" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="F18" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="G18" s="30">
+      <c r="G18" s="42">
         <v>44823.0</v>
       </c>
-      <c r="H18" s="30">
-        <v>44831.0</v>
-      </c>
-      <c r="I18" s="31">
-        <v>0.0</v>
-      </c>
-      <c r="J18" s="35"/>
-      <c r="K18" s="32"/>
-      <c r="L18" s="32"/>
-      <c r="M18" s="32"/>
-      <c r="N18" s="32"/>
-      <c r="O18" s="32"/>
+      <c r="H18" s="32">
+        <v>44830.0</v>
+      </c>
+      <c r="I18" s="33">
+        <v>1.0</v>
+      </c>
+      <c r="J18" s="37"/>
+      <c r="K18" s="34"/>
+      <c r="L18" s="34"/>
+      <c r="M18" s="34"/>
+      <c r="N18" s="34"/>
+      <c r="O18" s="34"/>
       <c r="P18" s="2"/>
       <c r="Q18" s="2"/>
       <c r="R18" s="2"/>
@@ -2056,35 +2257,35 @@
       <c r="Z18" s="2"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="16"/>
-      <c r="B19" s="33" t="s">
+      <c r="A19" s="19"/>
+      <c r="B19" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="C19" s="26"/>
-      <c r="D19" s="27" t="s">
+      <c r="C19" s="29"/>
+      <c r="D19" s="44" t="s">
+        <v>35</v>
+      </c>
+      <c r="E19" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="E19" s="34" t="s">
-        <v>42</v>
-      </c>
-      <c r="F19" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="G19" s="30">
+      <c r="F19" s="41" t="s">
+        <v>37</v>
+      </c>
+      <c r="G19" s="42">
         <v>44823.0</v>
       </c>
-      <c r="H19" s="30">
-        <v>44832.0</v>
-      </c>
-      <c r="I19" s="31">
-        <v>0.0</v>
-      </c>
-      <c r="J19" s="35"/>
-      <c r="K19" s="32"/>
-      <c r="L19" s="32"/>
-      <c r="M19" s="32"/>
-      <c r="N19" s="32"/>
-      <c r="O19" s="32"/>
+      <c r="H19" s="32">
+        <v>44830.0</v>
+      </c>
+      <c r="I19" s="33">
+        <v>1.0</v>
+      </c>
+      <c r="J19" s="37"/>
+      <c r="K19" s="34"/>
+      <c r="L19" s="34"/>
+      <c r="M19" s="34"/>
+      <c r="N19" s="34"/>
+      <c r="O19" s="34"/>
       <c r="P19" s="2"/>
       <c r="Q19" s="2"/>
       <c r="R19" s="2"/>
@@ -2098,36 +2299,36 @@
       <c r="Z19" s="2"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="16"/>
-      <c r="B20" s="37" t="s">
+      <c r="A20" s="19"/>
+      <c r="B20" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" s="29"/>
+      <c r="D20" s="44" t="s">
+        <v>35</v>
+      </c>
+      <c r="E20" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="C20" s="26"/>
-      <c r="D20" s="38" t="s">
-        <v>44</v>
-      </c>
-      <c r="E20" s="39" t="s">
-        <v>45</v>
-      </c>
-      <c r="F20" s="29" t="s">
-        <v>46</v>
-      </c>
-      <c r="G20" s="30">
+      <c r="F20" s="41" t="s">
+        <v>37</v>
+      </c>
+      <c r="G20" s="42">
         <v>44823.0</v>
       </c>
-      <c r="H20" s="30">
+      <c r="H20" s="32">
         <v>44830.0</v>
       </c>
-      <c r="I20" s="31">
-        <v>0.0</v>
-      </c>
-      <c r="J20" s="35"/>
-      <c r="K20" s="32"/>
-      <c r="L20" s="32"/>
-      <c r="M20" s="32"/>
-      <c r="N20" s="32"/>
-      <c r="O20" s="32"/>
-      <c r="P20" s="32"/>
+      <c r="I20" s="33">
+        <v>1.0</v>
+      </c>
+      <c r="J20" s="37"/>
+      <c r="K20" s="34"/>
+      <c r="L20" s="34"/>
+      <c r="M20" s="34"/>
+      <c r="N20" s="34"/>
+      <c r="O20" s="34"/>
+      <c r="P20" s="2"/>
       <c r="Q20" s="2"/>
       <c r="R20" s="2"/>
       <c r="S20" s="2"/>
@@ -2140,36 +2341,36 @@
       <c r="Z20" s="2"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="16"/>
-      <c r="B21" s="33" t="s">
-        <v>47</v>
-      </c>
-      <c r="C21" s="26"/>
-      <c r="D21" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="E21" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="F21" s="29" t="s">
-        <v>46</v>
-      </c>
-      <c r="G21" s="30">
-        <v>44739.0</v>
-      </c>
-      <c r="H21" s="30">
-        <v>44836.0</v>
-      </c>
-      <c r="I21" s="31">
-        <v>0.0</v>
-      </c>
-      <c r="J21" s="35"/>
-      <c r="K21" s="32"/>
-      <c r="L21" s="32"/>
-      <c r="M21" s="32"/>
-      <c r="N21" s="32"/>
-      <c r="O21" s="32"/>
-      <c r="P21" s="32"/>
+      <c r="A21" s="19"/>
+      <c r="B21" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" s="29"/>
+      <c r="D21" s="44" t="s">
+        <v>35</v>
+      </c>
+      <c r="E21" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="F21" s="41" t="s">
+        <v>37</v>
+      </c>
+      <c r="G21" s="42">
+        <v>44823.0</v>
+      </c>
+      <c r="H21" s="32">
+        <v>44830.0</v>
+      </c>
+      <c r="I21" s="33">
+        <v>1.0</v>
+      </c>
+      <c r="J21" s="37"/>
+      <c r="K21" s="34"/>
+      <c r="L21" s="34"/>
+      <c r="M21" s="34"/>
+      <c r="N21" s="34"/>
+      <c r="O21" s="34"/>
+      <c r="P21" s="2"/>
       <c r="Q21" s="2"/>
       <c r="R21" s="2"/>
       <c r="S21" s="2"/>
@@ -2182,28 +2383,35 @@
       <c r="Z21" s="2"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="16"/>
-      <c r="B22" s="33" t="s">
-        <v>50</v>
-      </c>
-      <c r="C22" s="26"/>
-      <c r="D22" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="E22" s="34"/>
-      <c r="F22" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="G22" s="30">
+      <c r="A22" s="19"/>
+      <c r="B22" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22" s="29"/>
+      <c r="D22" s="44" t="s">
+        <v>35</v>
+      </c>
+      <c r="E22" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="F22" s="41" t="s">
+        <v>37</v>
+      </c>
+      <c r="G22" s="42">
         <v>44823.0</v>
       </c>
-      <c r="H22" s="30">
-        <v>44836.0</v>
-      </c>
-      <c r="I22" s="31">
-        <v>0.0</v>
-      </c>
-      <c r="J22" s="35"/>
+      <c r="H22" s="32">
+        <v>44830.0</v>
+      </c>
+      <c r="I22" s="33">
+        <v>1.0</v>
+      </c>
+      <c r="J22" s="37"/>
+      <c r="K22" s="34"/>
+      <c r="L22" s="34"/>
+      <c r="M22" s="34"/>
+      <c r="N22" s="34"/>
+      <c r="O22" s="34"/>
       <c r="P22" s="2"/>
       <c r="Q22" s="2"/>
       <c r="R22" s="2"/>
@@ -2217,33 +2425,35 @@
       <c r="Z22" s="2"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="16"/>
-      <c r="B23" s="33" t="s">
-        <v>53</v>
-      </c>
-      <c r="C23" s="26"/>
-      <c r="D23" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="E23" s="28"/>
-      <c r="F23" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="G23" s="30">
-        <v>44816.0</v>
-      </c>
-      <c r="H23" s="30">
-        <v>44837.0</v>
-      </c>
-      <c r="I23" s="31">
-        <v>0.0</v>
-      </c>
-      <c r="J23" s="35"/>
-      <c r="K23" s="11"/>
-      <c r="L23" s="2"/>
-      <c r="M23" s="2"/>
-      <c r="N23" s="2"/>
-      <c r="O23" s="2"/>
+      <c r="A23" s="19"/>
+      <c r="B23" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" s="29"/>
+      <c r="D23" s="44" t="s">
+        <v>35</v>
+      </c>
+      <c r="E23" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="F23" s="41" t="s">
+        <v>37</v>
+      </c>
+      <c r="G23" s="42">
+        <v>44823.0</v>
+      </c>
+      <c r="H23" s="32">
+        <v>44830.0</v>
+      </c>
+      <c r="I23" s="45">
+        <v>0.5</v>
+      </c>
+      <c r="J23" s="37"/>
+      <c r="K23" s="34"/>
+      <c r="L23" s="34"/>
+      <c r="M23" s="34"/>
+      <c r="N23" s="34"/>
+      <c r="O23" s="34"/>
       <c r="P23" s="2"/>
       <c r="Q23" s="2"/>
       <c r="R23" s="2"/>
@@ -2256,32 +2466,36 @@
       <c r="Y23" s="2"/>
       <c r="Z23" s="2"/>
     </row>
-    <row r="24" ht="26.25" customHeight="1">
-      <c r="A24" s="40" t="s">
-        <v>55</v>
-      </c>
-      <c r="B24" s="41" t="s">
-        <v>56</v>
-      </c>
-      <c r="C24" s="26"/>
-      <c r="D24" s="42" t="s">
-        <v>57</v>
-      </c>
-      <c r="E24" s="43"/>
-      <c r="F24" s="44"/>
-      <c r="G24" s="45">
-        <v>44816.0</v>
-      </c>
-      <c r="H24" s="45">
-        <v>44837.0</v>
-      </c>
-      <c r="I24" s="46"/>
-      <c r="J24" s="2"/>
-      <c r="K24" s="2"/>
-      <c r="L24" s="2"/>
-      <c r="M24" s="2"/>
-      <c r="N24" s="2"/>
-      <c r="O24" s="2"/>
+    <row r="24" ht="15.75" customHeight="1">
+      <c r="A24" s="19"/>
+      <c r="B24" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="C24" s="29"/>
+      <c r="D24" s="44" t="s">
+        <v>35</v>
+      </c>
+      <c r="E24" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="F24" s="41" t="s">
+        <v>37</v>
+      </c>
+      <c r="G24" s="42">
+        <v>44823.0</v>
+      </c>
+      <c r="H24" s="32">
+        <v>44830.0</v>
+      </c>
+      <c r="I24" s="45">
+        <v>0.5</v>
+      </c>
+      <c r="J24" s="37"/>
+      <c r="K24" s="34"/>
+      <c r="L24" s="34"/>
+      <c r="M24" s="34"/>
+      <c r="N24" s="34"/>
+      <c r="O24" s="34"/>
       <c r="P24" s="2"/>
       <c r="Q24" s="2"/>
       <c r="R24" s="2"/>
@@ -2295,35 +2509,35 @@
       <c r="Z24" s="2"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="47"/>
-      <c r="B25" s="48" t="s">
-        <v>58</v>
-      </c>
-      <c r="C25" s="26"/>
-      <c r="D25" s="27" t="s">
-        <v>34</v>
-      </c>
-      <c r="E25" s="34" t="s">
-        <v>35</v>
-      </c>
-      <c r="F25" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="G25" s="30">
-        <v>44838.0</v>
-      </c>
-      <c r="H25" s="30">
-        <v>44844.0</v>
-      </c>
-      <c r="I25" s="31">
-        <v>0.0</v>
-      </c>
-      <c r="J25" s="35"/>
-      <c r="K25" s="11"/>
-      <c r="L25" s="2"/>
-      <c r="M25" s="2"/>
-      <c r="N25" s="2"/>
-      <c r="O25" s="2"/>
+      <c r="A25" s="19"/>
+      <c r="B25" s="46" t="s">
+        <v>52</v>
+      </c>
+      <c r="C25" s="47"/>
+      <c r="D25" s="39" t="s">
+        <v>53</v>
+      </c>
+      <c r="E25" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="F25" s="41" t="s">
+        <v>55</v>
+      </c>
+      <c r="G25" s="42">
+        <v>44823.0</v>
+      </c>
+      <c r="H25" s="32">
+        <v>44831.0</v>
+      </c>
+      <c r="I25" s="33">
+        <v>1.0</v>
+      </c>
+      <c r="J25" s="37"/>
+      <c r="K25" s="34"/>
+      <c r="L25" s="34"/>
+      <c r="M25" s="34"/>
+      <c r="N25" s="34"/>
+      <c r="O25" s="34"/>
       <c r="P25" s="2"/>
       <c r="Q25" s="2"/>
       <c r="R25" s="2"/>
@@ -2337,35 +2551,35 @@
       <c r="Z25" s="2"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="47"/>
-      <c r="B26" s="37" t="s">
-        <v>59</v>
-      </c>
-      <c r="C26" s="26"/>
-      <c r="D26" s="49" t="s">
-        <v>38</v>
-      </c>
-      <c r="E26" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="F26" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="G26" s="30">
-        <v>44838.0</v>
-      </c>
-      <c r="H26" s="30">
-        <v>44844.0</v>
-      </c>
-      <c r="I26" s="31">
-        <v>0.0</v>
-      </c>
-      <c r="J26" s="35"/>
-      <c r="K26" s="11"/>
-      <c r="L26" s="2"/>
-      <c r="M26" s="2"/>
-      <c r="N26" s="2"/>
-      <c r="O26" s="2"/>
+      <c r="A26" s="19"/>
+      <c r="B26" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="C26" s="29"/>
+      <c r="D26" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="E26" s="36" t="s">
+        <v>58</v>
+      </c>
+      <c r="F26" s="41" t="s">
+        <v>55</v>
+      </c>
+      <c r="G26" s="42">
+        <v>44823.0</v>
+      </c>
+      <c r="H26" s="32">
+        <v>44832.0</v>
+      </c>
+      <c r="I26" s="33">
+        <v>0.8</v>
+      </c>
+      <c r="J26" s="37"/>
+      <c r="K26" s="34"/>
+      <c r="L26" s="34"/>
+      <c r="M26" s="34"/>
+      <c r="N26" s="34"/>
+      <c r="O26" s="34"/>
       <c r="P26" s="2"/>
       <c r="Q26" s="2"/>
       <c r="R26" s="2"/>
@@ -2379,36 +2593,36 @@
       <c r="Z26" s="2"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="47"/>
-      <c r="B27" s="50" t="s">
+      <c r="A27" s="19"/>
+      <c r="B27" s="48" t="s">
+        <v>59</v>
+      </c>
+      <c r="C27" s="29"/>
+      <c r="D27" s="49" t="s">
+        <v>60</v>
+      </c>
+      <c r="E27" s="50" t="s">
         <v>61</v>
       </c>
-      <c r="C27" s="51"/>
-      <c r="D27" s="49" t="s">
-        <v>44</v>
-      </c>
-      <c r="E27" s="39" t="s">
-        <v>45</v>
-      </c>
-      <c r="F27" s="29" t="s">
+      <c r="F27" s="41" t="s">
         <v>62</v>
       </c>
-      <c r="G27" s="30">
-        <v>44838.0</v>
-      </c>
-      <c r="H27" s="30">
-        <v>44844.0</v>
-      </c>
-      <c r="I27" s="31">
-        <v>0.0</v>
-      </c>
-      <c r="J27" s="35"/>
-      <c r="K27" s="11"/>
-      <c r="L27" s="2"/>
-      <c r="M27" s="2"/>
-      <c r="N27" s="2"/>
-      <c r="O27" s="2"/>
-      <c r="P27" s="2"/>
+      <c r="G27" s="42">
+        <v>44823.0</v>
+      </c>
+      <c r="H27" s="32">
+        <v>44830.0</v>
+      </c>
+      <c r="I27" s="45">
+        <v>0.6</v>
+      </c>
+      <c r="J27" s="37"/>
+      <c r="K27" s="34"/>
+      <c r="L27" s="34"/>
+      <c r="M27" s="34"/>
+      <c r="N27" s="34"/>
+      <c r="O27" s="34"/>
+      <c r="P27" s="34"/>
       <c r="Q27" s="2"/>
       <c r="R27" s="2"/>
       <c r="S27" s="2"/>
@@ -2421,34 +2635,36 @@
       <c r="Z27" s="2"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="47"/>
-      <c r="B28" s="52" t="s">
+      <c r="A28" s="19"/>
+      <c r="B28" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="C28" s="53"/>
-      <c r="D28" s="54" t="s">
+      <c r="C28" s="29"/>
+      <c r="D28" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="E28" s="55"/>
-      <c r="F28" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="G28" s="30">
-        <v>44845.0</v>
-      </c>
-      <c r="H28" s="30">
-        <v>44852.0</v>
-      </c>
-      <c r="I28" s="31">
-        <v>0.0</v>
-      </c>
-      <c r="J28" s="35"/>
-      <c r="K28" s="11"/>
-      <c r="L28" s="2"/>
-      <c r="M28" s="2"/>
-      <c r="N28" s="2"/>
-      <c r="O28" s="2"/>
-      <c r="P28" s="2"/>
+      <c r="E28" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="F28" s="41" t="s">
+        <v>62</v>
+      </c>
+      <c r="G28" s="42">
+        <v>44739.0</v>
+      </c>
+      <c r="H28" s="32">
+        <v>44836.0</v>
+      </c>
+      <c r="I28" s="45">
+        <v>0.6</v>
+      </c>
+      <c r="J28" s="37"/>
+      <c r="K28" s="34"/>
+      <c r="L28" s="34"/>
+      <c r="M28" s="34"/>
+      <c r="N28" s="34"/>
+      <c r="O28" s="34"/>
+      <c r="P28" s="34"/>
       <c r="Q28" s="2"/>
       <c r="R28" s="2"/>
       <c r="S28" s="2"/>
@@ -2461,33 +2677,30 @@
       <c r="Z28" s="2"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="47"/>
-      <c r="B29" s="56" t="s">
-        <v>65</v>
-      </c>
-      <c r="C29" s="57"/>
-      <c r="D29" s="54" t="s">
+      <c r="A29" s="19"/>
+      <c r="B29" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="E29" s="55"/>
-      <c r="F29" s="29" t="s">
+      <c r="C29" s="29"/>
+      <c r="D29" s="39" t="s">
         <v>67</v>
       </c>
-      <c r="G29" s="30">
-        <v>44845.0</v>
-      </c>
-      <c r="H29" s="30">
-        <v>44852.0</v>
-      </c>
-      <c r="I29" s="31">
+      <c r="E29" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="F29" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="G29" s="32">
+        <v>44823.0</v>
+      </c>
+      <c r="H29" s="32">
+        <v>44836.0</v>
+      </c>
+      <c r="I29" s="51">
         <v>0.0</v>
       </c>
-      <c r="J29" s="35"/>
-      <c r="K29" s="11"/>
-      <c r="L29" s="2"/>
-      <c r="M29" s="2"/>
-      <c r="N29" s="2"/>
-      <c r="O29" s="2"/>
+      <c r="J29" s="37"/>
       <c r="P29" s="2"/>
       <c r="Q29" s="2"/>
       <c r="R29" s="2"/>
@@ -2501,28 +2714,30 @@
       <c r="Z29" s="2"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="47"/>
-      <c r="B30" s="56" t="s">
-        <v>68</v>
-      </c>
-      <c r="C30" s="57"/>
-      <c r="D30" s="54" t="s">
+      <c r="A30" s="19"/>
+      <c r="B30" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="E30" s="55"/>
-      <c r="F30" s="29" t="s">
-        <v>67</v>
-      </c>
-      <c r="G30" s="30">
-        <v>44852.0</v>
-      </c>
-      <c r="H30" s="30">
-        <v>44858.0</v>
-      </c>
-      <c r="I30" s="31">
+      <c r="C30" s="29"/>
+      <c r="D30" s="39" t="s">
+        <v>70</v>
+      </c>
+      <c r="E30" s="36" t="s">
+        <v>71</v>
+      </c>
+      <c r="F30" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="G30" s="32">
+        <v>44816.0</v>
+      </c>
+      <c r="H30" s="32">
+        <v>44837.0</v>
+      </c>
+      <c r="I30" s="51">
         <v>0.0</v>
       </c>
-      <c r="J30" s="35"/>
+      <c r="J30" s="37"/>
       <c r="K30" s="11"/>
       <c r="L30" s="2"/>
       <c r="M30" s="2"/>
@@ -2540,30 +2755,28 @@
       <c r="Y30" s="2"/>
       <c r="Z30" s="2"/>
     </row>
-    <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="47"/>
-      <c r="B31" s="56" t="s">
-        <v>70</v>
-      </c>
-      <c r="C31" s="57"/>
+    <row r="31" ht="26.25" customHeight="1">
+      <c r="A31" s="52" t="s">
+        <v>72</v>
+      </c>
+      <c r="B31" s="53" t="s">
+        <v>73</v>
+      </c>
+      <c r="C31" s="29"/>
       <c r="D31" s="54" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E31" s="55"/>
-      <c r="F31" s="29" t="s">
-        <v>67</v>
-      </c>
-      <c r="G31" s="30">
-        <v>44852.0</v>
-      </c>
-      <c r="H31" s="30">
-        <v>44858.0</v>
-      </c>
-      <c r="I31" s="31">
-        <v>0.0</v>
-      </c>
-      <c r="J31" s="35"/>
-      <c r="K31" s="11"/>
+      <c r="F31" s="56"/>
+      <c r="G31" s="57">
+        <v>44816.0</v>
+      </c>
+      <c r="H31" s="57">
+        <v>44837.0</v>
+      </c>
+      <c r="I31" s="58"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
       <c r="L31" s="2"/>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -2581,28 +2794,30 @@
       <c r="Z31" s="2"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="47"/>
-      <c r="B32" s="33" t="s">
-        <v>50</v>
-      </c>
-      <c r="C32" s="26"/>
-      <c r="D32" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="E32" s="28"/>
-      <c r="F32" s="29" t="s">
-        <v>72</v>
-      </c>
-      <c r="G32" s="30">
-        <v>44858.0</v>
-      </c>
-      <c r="H32" s="30">
-        <v>44865.0</v>
-      </c>
-      <c r="I32" s="31">
+      <c r="A32" s="59"/>
+      <c r="B32" s="60" t="s">
+        <v>75</v>
+      </c>
+      <c r="C32" s="29"/>
+      <c r="D32" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="E32" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="F32" s="41" t="s">
+        <v>37</v>
+      </c>
+      <c r="G32" s="32">
+        <v>44838.0</v>
+      </c>
+      <c r="H32" s="32">
+        <v>44844.0</v>
+      </c>
+      <c r="I32" s="51">
         <v>0.0</v>
       </c>
-      <c r="J32" s="35"/>
+      <c r="J32" s="37"/>
       <c r="K32" s="11"/>
       <c r="L32" s="2"/>
       <c r="M32" s="2"/>
@@ -2621,28 +2836,30 @@
       <c r="Z32" s="2"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="47"/>
-      <c r="B33" s="33" t="s">
+      <c r="A33" s="59"/>
+      <c r="B33" s="61" t="s">
+        <v>76</v>
+      </c>
+      <c r="C33" s="29"/>
+      <c r="D33" s="62" t="s">
         <v>53</v>
       </c>
-      <c r="C33" s="26"/>
-      <c r="D33" s="27" t="s">
-        <v>73</v>
-      </c>
-      <c r="E33" s="28"/>
-      <c r="F33" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="G33" s="30">
+      <c r="E33" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="F33" s="41" t="s">
+        <v>55</v>
+      </c>
+      <c r="G33" s="32">
         <v>44838.0</v>
       </c>
-      <c r="H33" s="30">
-        <v>44865.0</v>
-      </c>
-      <c r="I33" s="31">
+      <c r="H33" s="32">
+        <v>44844.0</v>
+      </c>
+      <c r="I33" s="51">
         <v>0.0</v>
       </c>
-      <c r="J33" s="35"/>
+      <c r="J33" s="37"/>
       <c r="K33" s="11"/>
       <c r="L33" s="2"/>
       <c r="M33" s="2"/>
@@ -2660,28 +2877,32 @@
       <c r="Y33" s="2"/>
       <c r="Z33" s="2"/>
     </row>
-    <row r="34" ht="24.75" customHeight="1">
-      <c r="A34" s="40" t="s">
-        <v>74</v>
-      </c>
-      <c r="B34" s="41" t="s">
-        <v>75</v>
-      </c>
-      <c r="C34" s="26"/>
-      <c r="D34" s="42" t="s">
-        <v>76</v>
-      </c>
-      <c r="E34" s="43"/>
-      <c r="F34" s="58"/>
-      <c r="G34" s="45">
+    <row r="34" ht="15.75" customHeight="1">
+      <c r="A34" s="59"/>
+      <c r="B34" s="63" t="s">
+        <v>77</v>
+      </c>
+      <c r="C34" s="64"/>
+      <c r="D34" s="62" t="s">
+        <v>60</v>
+      </c>
+      <c r="E34" s="50" t="s">
+        <v>61</v>
+      </c>
+      <c r="F34" s="65" t="s">
+        <v>62</v>
+      </c>
+      <c r="G34" s="32">
         <v>44838.0</v>
       </c>
-      <c r="H34" s="45">
-        <v>44865.0</v>
-      </c>
-      <c r="I34" s="59"/>
-      <c r="J34" s="2"/>
-      <c r="K34" s="2"/>
+      <c r="H34" s="32">
+        <v>44844.0</v>
+      </c>
+      <c r="I34" s="51">
+        <v>0.0</v>
+      </c>
+      <c r="J34" s="37"/>
+      <c r="K34" s="11"/>
       <c r="L34" s="2"/>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -2699,28 +2920,30 @@
       <c r="Z34" s="2"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="47"/>
-      <c r="B35" s="60" t="s">
-        <v>77</v>
-      </c>
-      <c r="C35" s="26"/>
-      <c r="D35" s="54" t="s">
-        <v>71</v>
-      </c>
-      <c r="E35" s="55"/>
-      <c r="F35" s="29" t="s">
-        <v>67</v>
-      </c>
-      <c r="G35" s="30">
-        <v>44866.0</v>
-      </c>
-      <c r="H35" s="30">
-        <v>44873.0</v>
-      </c>
-      <c r="I35" s="31">
+      <c r="A35" s="59"/>
+      <c r="B35" s="66" t="s">
+        <v>78</v>
+      </c>
+      <c r="C35" s="47"/>
+      <c r="D35" s="67" t="s">
+        <v>79</v>
+      </c>
+      <c r="E35" s="68" t="s">
+        <v>80</v>
+      </c>
+      <c r="F35" s="41" t="s">
+        <v>55</v>
+      </c>
+      <c r="G35" s="32">
+        <v>44845.0</v>
+      </c>
+      <c r="H35" s="32">
+        <v>44852.0</v>
+      </c>
+      <c r="I35" s="51">
         <v>0.0</v>
       </c>
-      <c r="J35" s="35"/>
+      <c r="J35" s="37"/>
       <c r="K35" s="11"/>
       <c r="L35" s="2"/>
       <c r="M35" s="2"/>
@@ -2739,28 +2962,30 @@
       <c r="Z35" s="2"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
-      <c r="A36" s="47"/>
-      <c r="B36" s="60" t="s">
-        <v>78</v>
-      </c>
-      <c r="C36" s="26"/>
-      <c r="D36" s="54" t="s">
-        <v>69</v>
-      </c>
-      <c r="E36" s="55"/>
-      <c r="F36" s="29" t="s">
-        <v>67</v>
-      </c>
-      <c r="G36" s="30">
-        <v>44866.0</v>
-      </c>
-      <c r="H36" s="30">
-        <v>44873.0</v>
-      </c>
-      <c r="I36" s="31">
+      <c r="A36" s="59"/>
+      <c r="B36" s="69" t="s">
+        <v>81</v>
+      </c>
+      <c r="C36" s="70"/>
+      <c r="D36" s="67" t="s">
+        <v>82</v>
+      </c>
+      <c r="E36" s="68" t="s">
+        <v>83</v>
+      </c>
+      <c r="F36" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="G36" s="32">
+        <v>44845.0</v>
+      </c>
+      <c r="H36" s="32">
+        <v>44852.0</v>
+      </c>
+      <c r="I36" s="51">
         <v>0.0</v>
       </c>
-      <c r="J36" s="35"/>
+      <c r="J36" s="37"/>
       <c r="K36" s="11"/>
       <c r="L36" s="2"/>
       <c r="M36" s="2"/>
@@ -2779,28 +3004,30 @@
       <c r="Z36" s="2"/>
     </row>
     <row r="37" ht="15.75" customHeight="1">
-      <c r="A37" s="47"/>
-      <c r="B37" s="60" t="s">
-        <v>79</v>
-      </c>
-      <c r="C37" s="26"/>
-      <c r="D37" s="54" t="s">
-        <v>71</v>
-      </c>
-      <c r="E37" s="55"/>
-      <c r="F37" s="29" t="s">
-        <v>67</v>
-      </c>
-      <c r="G37" s="30">
-        <v>44866.0</v>
-      </c>
-      <c r="H37" s="30">
-        <v>44873.0</v>
-      </c>
-      <c r="I37" s="31">
+      <c r="A37" s="59"/>
+      <c r="B37" s="69" t="s">
+        <v>84</v>
+      </c>
+      <c r="C37" s="70"/>
+      <c r="D37" s="67" t="s">
+        <v>85</v>
+      </c>
+      <c r="E37" s="68" t="s">
+        <v>86</v>
+      </c>
+      <c r="F37" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="G37" s="32">
+        <v>44852.0</v>
+      </c>
+      <c r="H37" s="32">
+        <v>44858.0</v>
+      </c>
+      <c r="I37" s="51">
         <v>0.0</v>
       </c>
-      <c r="J37" s="35"/>
+      <c r="J37" s="37"/>
       <c r="K37" s="11"/>
       <c r="L37" s="2"/>
       <c r="M37" s="2"/>
@@ -2819,28 +3046,30 @@
       <c r="Z37" s="2"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
-      <c r="A38" s="47"/>
-      <c r="B38" s="37" t="s">
-        <v>80</v>
-      </c>
-      <c r="C38" s="26"/>
-      <c r="D38" s="49" t="s">
-        <v>34</v>
-      </c>
-      <c r="E38" s="61"/>
-      <c r="F38" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="G38" s="30">
-        <v>44873.0</v>
-      </c>
-      <c r="H38" s="30">
-        <v>44880.0</v>
-      </c>
-      <c r="I38" s="31">
+      <c r="A38" s="59"/>
+      <c r="B38" s="69" t="s">
+        <v>87</v>
+      </c>
+      <c r="C38" s="70"/>
+      <c r="D38" s="67" t="s">
+        <v>88</v>
+      </c>
+      <c r="E38" s="68" t="s">
+        <v>89</v>
+      </c>
+      <c r="F38" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="G38" s="32">
+        <v>44852.0</v>
+      </c>
+      <c r="H38" s="32">
+        <v>44858.0</v>
+      </c>
+      <c r="I38" s="51">
         <v>0.0</v>
       </c>
-      <c r="J38" s="35"/>
+      <c r="J38" s="37"/>
       <c r="K38" s="11"/>
       <c r="L38" s="2"/>
       <c r="M38" s="2"/>
@@ -2859,28 +3088,30 @@
       <c r="Z38" s="2"/>
     </row>
     <row r="39" ht="15.75" customHeight="1">
-      <c r="A39" s="47"/>
-      <c r="B39" s="48" t="s">
-        <v>81</v>
-      </c>
-      <c r="C39" s="26"/>
-      <c r="D39" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="E39" s="62"/>
-      <c r="F39" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="G39" s="30">
-        <v>44873.0</v>
-      </c>
-      <c r="H39" s="30">
-        <v>44880.0</v>
-      </c>
-      <c r="I39" s="31">
+      <c r="A39" s="59"/>
+      <c r="B39" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="C39" s="29"/>
+      <c r="D39" s="39" t="s">
+        <v>67</v>
+      </c>
+      <c r="E39" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="F39" s="31" t="s">
+        <v>90</v>
+      </c>
+      <c r="G39" s="32">
+        <v>44858.0</v>
+      </c>
+      <c r="H39" s="32">
+        <v>44865.0</v>
+      </c>
+      <c r="I39" s="51">
         <v>0.0</v>
       </c>
-      <c r="J39" s="35"/>
+      <c r="J39" s="37"/>
       <c r="K39" s="11"/>
       <c r="L39" s="2"/>
       <c r="M39" s="2"/>
@@ -2899,28 +3130,30 @@
       <c r="Z39" s="2"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
-      <c r="A40" s="47"/>
-      <c r="B40" s="63" t="s">
-        <v>82</v>
-      </c>
-      <c r="C40" s="5"/>
-      <c r="D40" s="38" t="s">
-        <v>44</v>
-      </c>
-      <c r="E40" s="62"/>
-      <c r="F40" s="29" t="s">
-        <v>46</v>
-      </c>
-      <c r="G40" s="30">
-        <v>44873.0</v>
-      </c>
-      <c r="H40" s="30">
-        <v>44880.0</v>
-      </c>
-      <c r="I40" s="31">
+      <c r="A40" s="59"/>
+      <c r="B40" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="C40" s="29"/>
+      <c r="D40" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="E40" s="36" t="s">
+        <v>71</v>
+      </c>
+      <c r="F40" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="G40" s="32">
+        <v>44838.0</v>
+      </c>
+      <c r="H40" s="32">
+        <v>44865.0</v>
+      </c>
+      <c r="I40" s="51">
         <v>0.0</v>
       </c>
-      <c r="J40" s="35"/>
+      <c r="J40" s="37"/>
       <c r="K40" s="11"/>
       <c r="L40" s="2"/>
       <c r="M40" s="2"/>
@@ -2938,30 +3171,28 @@
       <c r="Y40" s="2"/>
       <c r="Z40" s="2"/>
     </row>
-    <row r="41" ht="15.75" customHeight="1">
-      <c r="A41" s="47"/>
-      <c r="B41" s="33" t="s">
-        <v>83</v>
-      </c>
-      <c r="C41" s="26"/>
-      <c r="D41" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="E41" s="28"/>
-      <c r="F41" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="G41" s="30">
-        <v>44866.0</v>
-      </c>
-      <c r="H41" s="30">
-        <v>44880.0</v>
-      </c>
-      <c r="I41" s="31">
-        <v>0.0</v>
-      </c>
-      <c r="J41" s="35"/>
-      <c r="K41" s="11"/>
+    <row r="41" ht="24.75" customHeight="1">
+      <c r="A41" s="52" t="s">
+        <v>92</v>
+      </c>
+      <c r="B41" s="53" t="s">
+        <v>93</v>
+      </c>
+      <c r="C41" s="29"/>
+      <c r="D41" s="54" t="s">
+        <v>94</v>
+      </c>
+      <c r="E41" s="55"/>
+      <c r="F41" s="71"/>
+      <c r="G41" s="57">
+        <v>44838.0</v>
+      </c>
+      <c r="H41" s="57">
+        <v>44865.0</v>
+      </c>
+      <c r="I41" s="72"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="2"/>
       <c r="L41" s="2"/>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -2979,108 +3210,114 @@
       <c r="Z41" s="2"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
-      <c r="A42" s="47"/>
-      <c r="B42" s="33" t="s">
-        <v>84</v>
-      </c>
-      <c r="C42" s="26"/>
-      <c r="D42" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="E42" s="28"/>
-      <c r="F42" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="G42" s="30">
+      <c r="A42" s="59"/>
+      <c r="B42" s="48" t="s">
+        <v>95</v>
+      </c>
+      <c r="C42" s="29"/>
+      <c r="D42" s="67" t="s">
+        <v>88</v>
+      </c>
+      <c r="E42" s="68" t="s">
+        <v>89</v>
+      </c>
+      <c r="F42" s="31" t="s">
+        <v>90</v>
+      </c>
+      <c r="G42" s="32">
         <v>44866.0</v>
       </c>
-      <c r="H42" s="30">
-        <v>44880.0</v>
-      </c>
-      <c r="I42" s="31">
+      <c r="H42" s="32">
+        <v>44873.0</v>
+      </c>
+      <c r="I42" s="51">
         <v>0.0</v>
       </c>
-      <c r="J42" s="35"/>
+      <c r="J42" s="37"/>
       <c r="K42" s="11"/>
-      <c r="L42" s="11"/>
-      <c r="M42" s="11"/>
-      <c r="N42" s="11"/>
-      <c r="O42" s="11"/>
-      <c r="P42" s="11"/>
-      <c r="Q42" s="11"/>
-      <c r="R42" s="11"/>
-      <c r="S42" s="11"/>
-      <c r="T42" s="11"/>
-      <c r="U42" s="11"/>
-      <c r="V42" s="11"/>
-      <c r="W42" s="11"/>
-      <c r="X42" s="11"/>
-      <c r="Y42" s="11"/>
-      <c r="Z42" s="11"/>
+      <c r="L42" s="2"/>
+      <c r="M42" s="2"/>
+      <c r="N42" s="2"/>
+      <c r="O42" s="2"/>
+      <c r="P42" s="2"/>
+      <c r="Q42" s="2"/>
+      <c r="R42" s="2"/>
+      <c r="S42" s="2"/>
+      <c r="T42" s="2"/>
+      <c r="U42" s="2"/>
+      <c r="V42" s="2"/>
+      <c r="W42" s="2"/>
+      <c r="X42" s="2"/>
+      <c r="Y42" s="2"/>
+      <c r="Z42" s="2"/>
     </row>
     <row r="43" ht="15.75" customHeight="1">
-      <c r="A43" s="47"/>
-      <c r="B43" s="33" t="s">
+      <c r="A43" s="59"/>
+      <c r="B43" s="48" t="s">
+        <v>96</v>
+      </c>
+      <c r="C43" s="29"/>
+      <c r="D43" s="67" t="s">
         <v>85</v>
       </c>
-      <c r="C43" s="26"/>
-      <c r="D43" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="E43" s="28"/>
-      <c r="F43" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="G43" s="30">
-        <v>44880.0</v>
-      </c>
-      <c r="H43" s="30">
-        <v>44884.0</v>
-      </c>
-      <c r="I43" s="31">
+      <c r="E43" s="68" t="s">
+        <v>86</v>
+      </c>
+      <c r="F43" s="31" t="s">
+        <v>90</v>
+      </c>
+      <c r="G43" s="32">
+        <v>44866.0</v>
+      </c>
+      <c r="H43" s="32">
+        <v>44873.0</v>
+      </c>
+      <c r="I43" s="51">
         <v>0.0</v>
       </c>
-      <c r="J43" s="35"/>
+      <c r="J43" s="37"/>
       <c r="K43" s="11"/>
-      <c r="L43" s="11"/>
-      <c r="M43" s="11"/>
-      <c r="N43" s="11"/>
-      <c r="O43" s="11"/>
-      <c r="P43" s="11"/>
-      <c r="Q43" s="11"/>
-      <c r="R43" s="11"/>
-      <c r="S43" s="11"/>
-      <c r="T43" s="11"/>
-      <c r="U43" s="11"/>
-      <c r="V43" s="11"/>
-      <c r="W43" s="11"/>
-      <c r="X43" s="11"/>
-      <c r="Y43" s="11"/>
-      <c r="Z43" s="11"/>
-    </row>
-    <row r="44" ht="14.25" customHeight="1">
-      <c r="A44" s="47"/>
-      <c r="B44" s="33" t="s">
-        <v>86</v>
-      </c>
-      <c r="C44" s="26"/>
-      <c r="D44" s="27" t="s">
-        <v>87</v>
-      </c>
-      <c r="E44" s="28"/>
-      <c r="F44" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="G44" s="30">
+      <c r="L43" s="2"/>
+      <c r="M43" s="2"/>
+      <c r="N43" s="2"/>
+      <c r="O43" s="2"/>
+      <c r="P43" s="2"/>
+      <c r="Q43" s="2"/>
+      <c r="R43" s="2"/>
+      <c r="S43" s="2"/>
+      <c r="T43" s="2"/>
+      <c r="U43" s="2"/>
+      <c r="V43" s="2"/>
+      <c r="W43" s="2"/>
+      <c r="X43" s="2"/>
+      <c r="Y43" s="2"/>
+      <c r="Z43" s="2"/>
+    </row>
+    <row r="44" ht="15.75" customHeight="1">
+      <c r="A44" s="59"/>
+      <c r="B44" s="48" t="s">
+        <v>97</v>
+      </c>
+      <c r="C44" s="29"/>
+      <c r="D44" s="67" t="s">
+        <v>88</v>
+      </c>
+      <c r="E44" s="68" t="s">
+        <v>89</v>
+      </c>
+      <c r="F44" s="31" t="s">
+        <v>90</v>
+      </c>
+      <c r="G44" s="32">
         <v>44866.0</v>
       </c>
-      <c r="H44" s="30">
-        <v>44884.0</v>
-      </c>
-      <c r="I44" s="31">
+      <c r="H44" s="32">
+        <v>44873.0</v>
+      </c>
+      <c r="I44" s="51">
         <v>0.0</v>
       </c>
-      <c r="J44" s="35"/>
+      <c r="J44" s="37"/>
       <c r="K44" s="11"/>
       <c r="L44" s="2"/>
       <c r="M44" s="2"/>
@@ -3099,28 +3336,30 @@
       <c r="Z44" s="2"/>
     </row>
     <row r="45" ht="15.75" customHeight="1">
-      <c r="A45" s="47"/>
-      <c r="B45" s="33" t="s">
-        <v>88</v>
-      </c>
-      <c r="C45" s="26"/>
-      <c r="D45" s="27" t="s">
-        <v>89</v>
-      </c>
-      <c r="E45" s="28"/>
-      <c r="F45" s="29" t="s">
-        <v>72</v>
-      </c>
-      <c r="G45" s="30">
+      <c r="A45" s="59"/>
+      <c r="B45" s="61" t="s">
+        <v>98</v>
+      </c>
+      <c r="C45" s="29"/>
+      <c r="D45" s="62" t="s">
+        <v>35</v>
+      </c>
+      <c r="E45" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="F45" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="G45" s="32">
+        <v>44873.0</v>
+      </c>
+      <c r="H45" s="32">
         <v>44880.0</v>
       </c>
-      <c r="H45" s="30">
-        <v>44884.0</v>
-      </c>
-      <c r="I45" s="31">
+      <c r="I45" s="51">
         <v>0.0</v>
       </c>
-      <c r="J45" s="35"/>
+      <c r="J45" s="37"/>
       <c r="K45" s="11"/>
       <c r="L45" s="2"/>
       <c r="M45" s="2"/>
@@ -3139,28 +3378,30 @@
       <c r="Z45" s="2"/>
     </row>
     <row r="46" ht="15.75" customHeight="1">
-      <c r="A46" s="47"/>
-      <c r="B46" s="33" t="s">
-        <v>50</v>
-      </c>
-      <c r="C46" s="26"/>
-      <c r="D46" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="E46" s="28"/>
-      <c r="F46" s="29" t="s">
-        <v>72</v>
-      </c>
-      <c r="G46" s="30">
+      <c r="A46" s="59"/>
+      <c r="B46" s="60" t="s">
+        <v>99</v>
+      </c>
+      <c r="C46" s="29"/>
+      <c r="D46" s="49" t="s">
+        <v>53</v>
+      </c>
+      <c r="E46" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="F46" s="41" t="s">
+        <v>55</v>
+      </c>
+      <c r="G46" s="32">
+        <v>44873.0</v>
+      </c>
+      <c r="H46" s="32">
         <v>44880.0</v>
       </c>
-      <c r="H46" s="30">
-        <v>44884.0</v>
-      </c>
-      <c r="I46" s="31">
+      <c r="I46" s="51">
         <v>0.0</v>
       </c>
-      <c r="J46" s="35"/>
+      <c r="J46" s="37"/>
       <c r="K46" s="11"/>
       <c r="L46" s="2"/>
       <c r="M46" s="2"/>
@@ -3179,28 +3420,30 @@
       <c r="Z46" s="2"/>
     </row>
     <row r="47" ht="15.75" customHeight="1">
-      <c r="A47" s="47"/>
-      <c r="B47" s="33" t="s">
-        <v>53</v>
-      </c>
-      <c r="C47" s="26"/>
-      <c r="D47" s="27" t="s">
-        <v>90</v>
-      </c>
-      <c r="E47" s="28"/>
-      <c r="F47" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="G47" s="30">
+      <c r="A47" s="59"/>
+      <c r="B47" s="73" t="s">
+        <v>100</v>
+      </c>
+      <c r="C47" s="74"/>
+      <c r="D47" s="49" t="s">
+        <v>60</v>
+      </c>
+      <c r="E47" s="50" t="s">
+        <v>61</v>
+      </c>
+      <c r="F47" s="65" t="s">
+        <v>62</v>
+      </c>
+      <c r="G47" s="32">
         <v>44873.0</v>
       </c>
-      <c r="H47" s="30">
-        <v>44885.0</v>
-      </c>
-      <c r="I47" s="31">
+      <c r="H47" s="32">
+        <v>44880.0</v>
+      </c>
+      <c r="I47" s="51">
         <v>0.0</v>
       </c>
-      <c r="J47" s="35"/>
+      <c r="J47" s="37"/>
       <c r="K47" s="11"/>
       <c r="L47" s="2"/>
       <c r="M47" s="2"/>
@@ -3219,28 +3462,30 @@
       <c r="Z47" s="2"/>
     </row>
     <row r="48" ht="15.75" customHeight="1">
-      <c r="A48" s="47"/>
-      <c r="B48" s="64" t="s">
-        <v>91</v>
-      </c>
-      <c r="C48" s="5"/>
-      <c r="D48" s="65" t="s">
-        <v>92</v>
-      </c>
-      <c r="E48" s="66"/>
-      <c r="F48" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="G48" s="30">
-        <v>44873.0</v>
-      </c>
-      <c r="H48" s="30">
-        <v>44885.0</v>
-      </c>
-      <c r="I48" s="31">
+      <c r="A48" s="59"/>
+      <c r="B48" s="38" t="s">
+        <v>101</v>
+      </c>
+      <c r="C48" s="29"/>
+      <c r="D48" s="39" t="s">
+        <v>64</v>
+      </c>
+      <c r="E48" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="F48" s="41" t="s">
+        <v>37</v>
+      </c>
+      <c r="G48" s="32">
+        <v>44866.0</v>
+      </c>
+      <c r="H48" s="32">
+        <v>44880.0</v>
+      </c>
+      <c r="I48" s="51">
         <v>0.0</v>
       </c>
-      <c r="J48" s="35"/>
+      <c r="J48" s="37"/>
       <c r="K48" s="11"/>
       <c r="L48" s="2"/>
       <c r="M48" s="2"/>
@@ -3258,84 +3503,116 @@
       <c r="Y48" s="2"/>
       <c r="Z48" s="2"/>
     </row>
-    <row r="49" ht="24.75" customHeight="1">
-      <c r="A49" s="40" t="s">
-        <v>93</v>
-      </c>
-      <c r="B49" s="67" t="s">
-        <v>94</v>
-      </c>
-      <c r="C49" s="68"/>
-      <c r="D49" s="69" t="s">
-        <v>95</v>
-      </c>
-      <c r="E49" s="70"/>
-      <c r="F49" s="71"/>
-      <c r="G49" s="72">
+    <row r="49" ht="15.75" customHeight="1">
+      <c r="A49" s="59"/>
+      <c r="B49" s="38" t="s">
+        <v>102</v>
+      </c>
+      <c r="C49" s="29"/>
+      <c r="D49" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="E49" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="F49" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="G49" s="32">
         <v>44866.0</v>
       </c>
-      <c r="H49" s="72">
-        <v>44885.0</v>
-      </c>
-      <c r="I49" s="73"/>
-      <c r="J49" s="2"/>
-      <c r="K49" s="2"/>
-      <c r="L49" s="2"/>
-      <c r="M49" s="2"/>
-      <c r="N49" s="2"/>
-      <c r="O49" s="2"/>
-      <c r="P49" s="2"/>
-      <c r="Q49" s="2"/>
-      <c r="R49" s="2"/>
-      <c r="S49" s="2"/>
-      <c r="T49" s="2"/>
-      <c r="U49" s="2"/>
-      <c r="V49" s="2"/>
-      <c r="W49" s="2"/>
-      <c r="X49" s="2"/>
-      <c r="Y49" s="2"/>
-      <c r="Z49" s="2"/>
+      <c r="H49" s="32">
+        <v>44880.0</v>
+      </c>
+      <c r="I49" s="51">
+        <v>0.0</v>
+      </c>
+      <c r="J49" s="37"/>
+      <c r="K49" s="11"/>
+      <c r="L49" s="11"/>
+      <c r="M49" s="11"/>
+      <c r="N49" s="11"/>
+      <c r="O49" s="11"/>
+      <c r="P49" s="11"/>
+      <c r="Q49" s="11"/>
+      <c r="R49" s="11"/>
+      <c r="S49" s="11"/>
+      <c r="T49" s="11"/>
+      <c r="U49" s="11"/>
+      <c r="V49" s="11"/>
+      <c r="W49" s="11"/>
+      <c r="X49" s="11"/>
+      <c r="Y49" s="11"/>
+      <c r="Z49" s="11"/>
     </row>
     <row r="50" ht="15.75" customHeight="1">
-      <c r="A50" s="2"/>
-      <c r="B50" s="74"/>
-      <c r="C50" s="74"/>
-      <c r="D50" s="74"/>
-      <c r="E50" s="74"/>
-      <c r="F50" s="74"/>
-      <c r="G50" s="75"/>
-      <c r="H50" s="75"/>
-      <c r="I50" s="75"/>
-      <c r="J50" s="2"/>
-      <c r="K50" s="2"/>
-      <c r="L50" s="2"/>
-      <c r="M50" s="2"/>
-      <c r="N50" s="2"/>
-      <c r="O50" s="2"/>
-      <c r="P50" s="2"/>
-      <c r="Q50" s="2"/>
-      <c r="R50" s="2"/>
-      <c r="S50" s="2"/>
-      <c r="T50" s="2"/>
-      <c r="U50" s="2"/>
-      <c r="V50" s="2"/>
-      <c r="W50" s="2"/>
-      <c r="X50" s="2"/>
-      <c r="Y50" s="2"/>
-      <c r="Z50" s="2"/>
-    </row>
-    <row r="51" ht="15.75" customHeight="1">
-      <c r="A51" s="2"/>
-      <c r="B51" s="76"/>
-      <c r="C51" s="76"/>
-      <c r="D51" s="2"/>
-      <c r="E51" s="2"/>
-      <c r="F51" s="2"/>
-      <c r="G51" s="8"/>
-      <c r="H51" s="8"/>
-      <c r="I51" s="8"/>
-      <c r="J51" s="2"/>
-      <c r="K51" s="2"/>
+      <c r="A50" s="59"/>
+      <c r="B50" s="38" t="s">
+        <v>103</v>
+      </c>
+      <c r="C50" s="29"/>
+      <c r="D50" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="E50" s="36" t="s">
+        <v>58</v>
+      </c>
+      <c r="F50" s="41" t="s">
+        <v>55</v>
+      </c>
+      <c r="G50" s="32">
+        <v>44880.0</v>
+      </c>
+      <c r="H50" s="32">
+        <v>44884.0</v>
+      </c>
+      <c r="I50" s="51">
+        <v>0.0</v>
+      </c>
+      <c r="J50" s="37"/>
+      <c r="K50" s="11"/>
+      <c r="L50" s="11"/>
+      <c r="M50" s="11"/>
+      <c r="N50" s="11"/>
+      <c r="O50" s="11"/>
+      <c r="P50" s="11"/>
+      <c r="Q50" s="11"/>
+      <c r="R50" s="11"/>
+      <c r="S50" s="11"/>
+      <c r="T50" s="11"/>
+      <c r="U50" s="11"/>
+      <c r="V50" s="11"/>
+      <c r="W50" s="11"/>
+      <c r="X50" s="11"/>
+      <c r="Y50" s="11"/>
+      <c r="Z50" s="11"/>
+    </row>
+    <row r="51" ht="14.25" customHeight="1">
+      <c r="A51" s="59"/>
+      <c r="B51" s="38" t="s">
+        <v>104</v>
+      </c>
+      <c r="C51" s="29"/>
+      <c r="D51" s="39" t="s">
+        <v>105</v>
+      </c>
+      <c r="E51" s="36" t="s">
+        <v>106</v>
+      </c>
+      <c r="F51" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="G51" s="32">
+        <v>44866.0</v>
+      </c>
+      <c r="H51" s="32">
+        <v>44884.0</v>
+      </c>
+      <c r="I51" s="51">
+        <v>0.0</v>
+      </c>
+      <c r="J51" s="37"/>
+      <c r="K51" s="11"/>
       <c r="L51" s="2"/>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -3353,17 +3630,31 @@
       <c r="Z51" s="2"/>
     </row>
     <row r="52" ht="15.75" customHeight="1">
-      <c r="A52" s="2"/>
-      <c r="B52" s="77"/>
-      <c r="C52" s="77"/>
-      <c r="D52" s="2"/>
-      <c r="E52" s="2"/>
-      <c r="F52" s="2"/>
-      <c r="G52" s="8"/>
-      <c r="H52" s="8"/>
-      <c r="I52" s="8"/>
-      <c r="J52" s="2"/>
-      <c r="K52" s="2"/>
+      <c r="A52" s="59"/>
+      <c r="B52" s="38" t="s">
+        <v>107</v>
+      </c>
+      <c r="C52" s="29"/>
+      <c r="D52" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="E52" s="36" t="s">
+        <v>109</v>
+      </c>
+      <c r="F52" s="31" t="s">
+        <v>90</v>
+      </c>
+      <c r="G52" s="32">
+        <v>44880.0</v>
+      </c>
+      <c r="H52" s="32">
+        <v>44884.0</v>
+      </c>
+      <c r="I52" s="51">
+        <v>0.0</v>
+      </c>
+      <c r="J52" s="37"/>
+      <c r="K52" s="11"/>
       <c r="L52" s="2"/>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
@@ -3381,17 +3672,31 @@
       <c r="Z52" s="2"/>
     </row>
     <row r="53" ht="15.75" customHeight="1">
-      <c r="A53" s="2"/>
-      <c r="B53" s="2"/>
-      <c r="C53" s="2"/>
-      <c r="D53" s="2"/>
-      <c r="E53" s="2"/>
-      <c r="F53" s="2"/>
-      <c r="G53" s="8"/>
-      <c r="H53" s="8"/>
-      <c r="I53" s="8"/>
-      <c r="J53" s="2"/>
-      <c r="K53" s="2"/>
+      <c r="A53" s="59"/>
+      <c r="B53" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="C53" s="29"/>
+      <c r="D53" s="39" t="s">
+        <v>67</v>
+      </c>
+      <c r="E53" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="F53" s="31" t="s">
+        <v>90</v>
+      </c>
+      <c r="G53" s="32">
+        <v>44880.0</v>
+      </c>
+      <c r="H53" s="32">
+        <v>44884.0</v>
+      </c>
+      <c r="I53" s="51">
+        <v>0.0</v>
+      </c>
+      <c r="J53" s="37"/>
+      <c r="K53" s="11"/>
       <c r="L53" s="2"/>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
@@ -3409,17 +3714,31 @@
       <c r="Z53" s="2"/>
     </row>
     <row r="54" ht="15.75" customHeight="1">
-      <c r="A54" s="2"/>
-      <c r="B54" s="2"/>
-      <c r="C54" s="2"/>
-      <c r="D54" s="2"/>
-      <c r="E54" s="2"/>
-      <c r="F54" s="2"/>
-      <c r="G54" s="8"/>
-      <c r="H54" s="8"/>
-      <c r="I54" s="8"/>
-      <c r="J54" s="2"/>
-      <c r="K54" s="2"/>
+      <c r="A54" s="59"/>
+      <c r="B54" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="C54" s="29"/>
+      <c r="D54" s="39" t="s">
+        <v>110</v>
+      </c>
+      <c r="E54" s="36" t="s">
+        <v>71</v>
+      </c>
+      <c r="F54" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="G54" s="32">
+        <v>44873.0</v>
+      </c>
+      <c r="H54" s="32">
+        <v>44885.0</v>
+      </c>
+      <c r="I54" s="51">
+        <v>0.0</v>
+      </c>
+      <c r="J54" s="37"/>
+      <c r="K54" s="11"/>
       <c r="L54" s="2"/>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
@@ -3437,17 +3756,31 @@
       <c r="Z54" s="2"/>
     </row>
     <row r="55" ht="15.75" customHeight="1">
-      <c r="A55" s="2"/>
-      <c r="B55" s="2"/>
-      <c r="C55" s="2"/>
-      <c r="D55" s="2"/>
-      <c r="E55" s="2"/>
-      <c r="F55" s="2"/>
-      <c r="G55" s="8"/>
-      <c r="H55" s="8"/>
-      <c r="I55" s="8"/>
-      <c r="J55" s="2"/>
-      <c r="K55" s="2"/>
+      <c r="A55" s="59"/>
+      <c r="B55" s="75" t="s">
+        <v>111</v>
+      </c>
+      <c r="C55" s="74"/>
+      <c r="D55" s="76" t="s">
+        <v>112</v>
+      </c>
+      <c r="E55" s="77" t="s">
+        <v>113</v>
+      </c>
+      <c r="F55" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="G55" s="32">
+        <v>44873.0</v>
+      </c>
+      <c r="H55" s="32">
+        <v>44885.0</v>
+      </c>
+      <c r="I55" s="51">
+        <v>0.0</v>
+      </c>
+      <c r="J55" s="37"/>
+      <c r="K55" s="11"/>
       <c r="L55" s="2"/>
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
@@ -3464,16 +3797,26 @@
       <c r="Y55" s="2"/>
       <c r="Z55" s="2"/>
     </row>
-    <row r="56" ht="15.75" customHeight="1">
-      <c r="A56" s="2"/>
-      <c r="B56" s="2"/>
-      <c r="C56" s="2"/>
-      <c r="D56" s="2"/>
-      <c r="E56" s="2"/>
-      <c r="F56" s="2"/>
-      <c r="G56" s="8"/>
-      <c r="H56" s="8"/>
-      <c r="I56" s="8"/>
+    <row r="56" ht="24.75" customHeight="1">
+      <c r="A56" s="52" t="s">
+        <v>114</v>
+      </c>
+      <c r="B56" s="78" t="s">
+        <v>115</v>
+      </c>
+      <c r="C56" s="79"/>
+      <c r="D56" s="80" t="s">
+        <v>116</v>
+      </c>
+      <c r="E56" s="81"/>
+      <c r="F56" s="82"/>
+      <c r="G56" s="83">
+        <v>44866.0</v>
+      </c>
+      <c r="H56" s="83">
+        <v>44885.0</v>
+      </c>
+      <c r="I56" s="84"/>
       <c r="J56" s="2"/>
       <c r="K56" s="2"/>
       <c r="L56" s="2"/>
@@ -3494,14 +3837,14 @@
     </row>
     <row r="57" ht="15.75" customHeight="1">
       <c r="A57" s="2"/>
-      <c r="B57" s="2"/>
-      <c r="C57" s="2"/>
-      <c r="D57" s="2"/>
-      <c r="E57" s="2"/>
-      <c r="F57" s="2"/>
-      <c r="G57" s="8"/>
-      <c r="H57" s="8"/>
-      <c r="I57" s="8"/>
+      <c r="B57" s="85"/>
+      <c r="C57" s="85"/>
+      <c r="D57" s="85"/>
+      <c r="E57" s="85"/>
+      <c r="F57" s="85"/>
+      <c r="G57" s="86"/>
+      <c r="H57" s="86"/>
+      <c r="I57" s="86"/>
       <c r="J57" s="2"/>
       <c r="K57" s="2"/>
       <c r="L57" s="2"/>
@@ -3522,8 +3865,8 @@
     </row>
     <row r="58" ht="15.75" customHeight="1">
       <c r="A58" s="2"/>
-      <c r="B58" s="2"/>
-      <c r="C58" s="2"/>
+      <c r="B58" s="87"/>
+      <c r="C58" s="87"/>
       <c r="D58" s="2"/>
       <c r="E58" s="2"/>
       <c r="F58" s="2"/>
@@ -3550,8 +3893,8 @@
     </row>
     <row r="59" ht="15.75" customHeight="1">
       <c r="A59" s="2"/>
-      <c r="B59" s="2"/>
-      <c r="C59" s="2"/>
+      <c r="B59" s="88"/>
+      <c r="C59" s="88"/>
       <c r="D59" s="2"/>
       <c r="E59" s="2"/>
       <c r="F59" s="2"/>
@@ -8903,9 +9246,9 @@
       <c r="D250" s="2"/>
       <c r="E250" s="2"/>
       <c r="F250" s="2"/>
-      <c r="G250" s="2"/>
-      <c r="H250" s="2"/>
-      <c r="I250" s="2"/>
+      <c r="G250" s="8"/>
+      <c r="H250" s="8"/>
+      <c r="I250" s="8"/>
       <c r="J250" s="2"/>
       <c r="K250" s="2"/>
       <c r="L250" s="2"/>
@@ -8931,9 +9274,9 @@
       <c r="D251" s="2"/>
       <c r="E251" s="2"/>
       <c r="F251" s="2"/>
-      <c r="G251" s="2"/>
-      <c r="H251" s="2"/>
-      <c r="I251" s="2"/>
+      <c r="G251" s="8"/>
+      <c r="H251" s="8"/>
+      <c r="I251" s="8"/>
       <c r="J251" s="2"/>
       <c r="K251" s="2"/>
       <c r="L251" s="2"/>
@@ -8959,9 +9302,9 @@
       <c r="D252" s="2"/>
       <c r="E252" s="2"/>
       <c r="F252" s="2"/>
-      <c r="G252" s="2"/>
-      <c r="H252" s="2"/>
-      <c r="I252" s="2"/>
+      <c r="G252" s="8"/>
+      <c r="H252" s="8"/>
+      <c r="I252" s="8"/>
       <c r="J252" s="2"/>
       <c r="K252" s="2"/>
       <c r="L252" s="2"/>
@@ -8987,9 +9330,9 @@
       <c r="D253" s="2"/>
       <c r="E253" s="2"/>
       <c r="F253" s="2"/>
-      <c r="G253" s="2"/>
-      <c r="H253" s="2"/>
-      <c r="I253" s="2"/>
+      <c r="G253" s="8"/>
+      <c r="H253" s="8"/>
+      <c r="I253" s="8"/>
       <c r="J253" s="2"/>
       <c r="K253" s="2"/>
       <c r="L253" s="2"/>
@@ -9015,9 +9358,9 @@
       <c r="D254" s="2"/>
       <c r="E254" s="2"/>
       <c r="F254" s="2"/>
-      <c r="G254" s="2"/>
-      <c r="H254" s="2"/>
-      <c r="I254" s="2"/>
+      <c r="G254" s="8"/>
+      <c r="H254" s="8"/>
+      <c r="I254" s="8"/>
       <c r="J254" s="2"/>
       <c r="K254" s="2"/>
       <c r="L254" s="2"/>
@@ -9043,9 +9386,9 @@
       <c r="D255" s="2"/>
       <c r="E255" s="2"/>
       <c r="F255" s="2"/>
-      <c r="G255" s="2"/>
-      <c r="H255" s="2"/>
-      <c r="I255" s="2"/>
+      <c r="G255" s="8"/>
+      <c r="H255" s="8"/>
+      <c r="I255" s="8"/>
       <c r="J255" s="2"/>
       <c r="K255" s="2"/>
       <c r="L255" s="2"/>
@@ -9071,9 +9414,9 @@
       <c r="D256" s="2"/>
       <c r="E256" s="2"/>
       <c r="F256" s="2"/>
-      <c r="G256" s="2"/>
-      <c r="H256" s="2"/>
-      <c r="I256" s="2"/>
+      <c r="G256" s="8"/>
+      <c r="H256" s="8"/>
+      <c r="I256" s="8"/>
       <c r="J256" s="2"/>
       <c r="K256" s="2"/>
       <c r="L256" s="2"/>
@@ -30064,15 +30407,211 @@
       <c r="Y1005" s="2"/>
       <c r="Z1005" s="2"/>
     </row>
+    <row r="1006" ht="15.75" customHeight="1">
+      <c r="A1006" s="2"/>
+      <c r="B1006" s="2"/>
+      <c r="C1006" s="2"/>
+      <c r="D1006" s="2"/>
+      <c r="E1006" s="2"/>
+      <c r="F1006" s="2"/>
+      <c r="G1006" s="2"/>
+      <c r="H1006" s="2"/>
+      <c r="I1006" s="2"/>
+      <c r="J1006" s="2"/>
+      <c r="K1006" s="2"/>
+      <c r="L1006" s="2"/>
+      <c r="M1006" s="2"/>
+      <c r="N1006" s="2"/>
+      <c r="O1006" s="2"/>
+      <c r="P1006" s="2"/>
+      <c r="Q1006" s="2"/>
+      <c r="R1006" s="2"/>
+      <c r="S1006" s="2"/>
+      <c r="T1006" s="2"/>
+      <c r="U1006" s="2"/>
+      <c r="V1006" s="2"/>
+      <c r="W1006" s="2"/>
+      <c r="X1006" s="2"/>
+      <c r="Y1006" s="2"/>
+      <c r="Z1006" s="2"/>
+    </row>
+    <row r="1007" ht="15.75" customHeight="1">
+      <c r="A1007" s="2"/>
+      <c r="B1007" s="2"/>
+      <c r="C1007" s="2"/>
+      <c r="D1007" s="2"/>
+      <c r="E1007" s="2"/>
+      <c r="F1007" s="2"/>
+      <c r="G1007" s="2"/>
+      <c r="H1007" s="2"/>
+      <c r="I1007" s="2"/>
+      <c r="J1007" s="2"/>
+      <c r="K1007" s="2"/>
+      <c r="L1007" s="2"/>
+      <c r="M1007" s="2"/>
+      <c r="N1007" s="2"/>
+      <c r="O1007" s="2"/>
+      <c r="P1007" s="2"/>
+      <c r="Q1007" s="2"/>
+      <c r="R1007" s="2"/>
+      <c r="S1007" s="2"/>
+      <c r="T1007" s="2"/>
+      <c r="U1007" s="2"/>
+      <c r="V1007" s="2"/>
+      <c r="W1007" s="2"/>
+      <c r="X1007" s="2"/>
+      <c r="Y1007" s="2"/>
+      <c r="Z1007" s="2"/>
+    </row>
+    <row r="1008" ht="15.75" customHeight="1">
+      <c r="A1008" s="2"/>
+      <c r="B1008" s="2"/>
+      <c r="C1008" s="2"/>
+      <c r="D1008" s="2"/>
+      <c r="E1008" s="2"/>
+      <c r="F1008" s="2"/>
+      <c r="G1008" s="2"/>
+      <c r="H1008" s="2"/>
+      <c r="I1008" s="2"/>
+      <c r="J1008" s="2"/>
+      <c r="K1008" s="2"/>
+      <c r="L1008" s="2"/>
+      <c r="M1008" s="2"/>
+      <c r="N1008" s="2"/>
+      <c r="O1008" s="2"/>
+      <c r="P1008" s="2"/>
+      <c r="Q1008" s="2"/>
+      <c r="R1008" s="2"/>
+      <c r="S1008" s="2"/>
+      <c r="T1008" s="2"/>
+      <c r="U1008" s="2"/>
+      <c r="V1008" s="2"/>
+      <c r="W1008" s="2"/>
+      <c r="X1008" s="2"/>
+      <c r="Y1008" s="2"/>
+      <c r="Z1008" s="2"/>
+    </row>
+    <row r="1009" ht="15.75" customHeight="1">
+      <c r="A1009" s="2"/>
+      <c r="B1009" s="2"/>
+      <c r="C1009" s="2"/>
+      <c r="D1009" s="2"/>
+      <c r="E1009" s="2"/>
+      <c r="F1009" s="2"/>
+      <c r="G1009" s="2"/>
+      <c r="H1009" s="2"/>
+      <c r="I1009" s="2"/>
+      <c r="J1009" s="2"/>
+      <c r="K1009" s="2"/>
+      <c r="L1009" s="2"/>
+      <c r="M1009" s="2"/>
+      <c r="N1009" s="2"/>
+      <c r="O1009" s="2"/>
+      <c r="P1009" s="2"/>
+      <c r="Q1009" s="2"/>
+      <c r="R1009" s="2"/>
+      <c r="S1009" s="2"/>
+      <c r="T1009" s="2"/>
+      <c r="U1009" s="2"/>
+      <c r="V1009" s="2"/>
+      <c r="W1009" s="2"/>
+      <c r="X1009" s="2"/>
+      <c r="Y1009" s="2"/>
+      <c r="Z1009" s="2"/>
+    </row>
+    <row r="1010" ht="15.75" customHeight="1">
+      <c r="A1010" s="2"/>
+      <c r="B1010" s="2"/>
+      <c r="C1010" s="2"/>
+      <c r="D1010" s="2"/>
+      <c r="E1010" s="2"/>
+      <c r="F1010" s="2"/>
+      <c r="G1010" s="2"/>
+      <c r="H1010" s="2"/>
+      <c r="I1010" s="2"/>
+      <c r="J1010" s="2"/>
+      <c r="K1010" s="2"/>
+      <c r="L1010" s="2"/>
+      <c r="M1010" s="2"/>
+      <c r="N1010" s="2"/>
+      <c r="O1010" s="2"/>
+      <c r="P1010" s="2"/>
+      <c r="Q1010" s="2"/>
+      <c r="R1010" s="2"/>
+      <c r="S1010" s="2"/>
+      <c r="T1010" s="2"/>
+      <c r="U1010" s="2"/>
+      <c r="V1010" s="2"/>
+      <c r="W1010" s="2"/>
+      <c r="X1010" s="2"/>
+      <c r="Y1010" s="2"/>
+      <c r="Z1010" s="2"/>
+    </row>
+    <row r="1011" ht="15.75" customHeight="1">
+      <c r="A1011" s="2"/>
+      <c r="B1011" s="2"/>
+      <c r="C1011" s="2"/>
+      <c r="D1011" s="2"/>
+      <c r="E1011" s="2"/>
+      <c r="F1011" s="2"/>
+      <c r="G1011" s="2"/>
+      <c r="H1011" s="2"/>
+      <c r="I1011" s="2"/>
+      <c r="J1011" s="2"/>
+      <c r="K1011" s="2"/>
+      <c r="L1011" s="2"/>
+      <c r="M1011" s="2"/>
+      <c r="N1011" s="2"/>
+      <c r="O1011" s="2"/>
+      <c r="P1011" s="2"/>
+      <c r="Q1011" s="2"/>
+      <c r="R1011" s="2"/>
+      <c r="S1011" s="2"/>
+      <c r="T1011" s="2"/>
+      <c r="U1011" s="2"/>
+      <c r="V1011" s="2"/>
+      <c r="W1011" s="2"/>
+      <c r="X1011" s="2"/>
+      <c r="Y1011" s="2"/>
+      <c r="Z1011" s="2"/>
+    </row>
+    <row r="1012" ht="15.75" customHeight="1">
+      <c r="A1012" s="2"/>
+      <c r="B1012" s="2"/>
+      <c r="C1012" s="2"/>
+      <c r="D1012" s="2"/>
+      <c r="E1012" s="2"/>
+      <c r="F1012" s="2"/>
+      <c r="G1012" s="2"/>
+      <c r="H1012" s="2"/>
+      <c r="I1012" s="2"/>
+      <c r="J1012" s="2"/>
+      <c r="K1012" s="2"/>
+      <c r="L1012" s="2"/>
+      <c r="M1012" s="2"/>
+      <c r="N1012" s="2"/>
+      <c r="O1012" s="2"/>
+      <c r="P1012" s="2"/>
+      <c r="Q1012" s="2"/>
+      <c r="R1012" s="2"/>
+      <c r="S1012" s="2"/>
+      <c r="T1012" s="2"/>
+      <c r="U1012" s="2"/>
+      <c r="V1012" s="2"/>
+      <c r="W1012" s="2"/>
+      <c r="X1012" s="2"/>
+      <c r="Y1012" s="2"/>
+      <c r="Z1012" s="2"/>
+    </row>
   </sheetData>
-  <mergeCells count="38">
+  <mergeCells count="45">
+    <mergeCell ref="A1:I1"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="B14:C14"/>
-    <mergeCell ref="A1:I1"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="B17:C17"/>
@@ -30085,18 +30624,15 @@
     <mergeCell ref="B24:C24"/>
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
     <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
     <mergeCell ref="B32:C32"/>
     <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
     <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
     <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
     <mergeCell ref="B40:C40"/>
     <mergeCell ref="B41:C41"/>
     <mergeCell ref="B42:C42"/>
@@ -30104,16 +30640,33 @@
     <mergeCell ref="B44:C44"/>
     <mergeCell ref="B45:C45"/>
     <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B53:C53"/>
   </mergeCells>
-  <conditionalFormatting sqref="I11:I23 I25:I33 I35:I48">
+  <conditionalFormatting sqref="I11:I30 I32:I40 I42:I55">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"100%"</formula>
     </cfRule>
   </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="B3"/>
+  </hyperlinks>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <tableParts count="2">
+    <tablePart r:id="rId5"/>
+    <tablePart r:id="rId6"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -30129,87 +30682,94 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
     <col customWidth="1" min="2" max="2" width="31.38"/>
-    <col customWidth="1" min="3" max="3" width="38.13"/>
+    <col customWidth="1" min="3" max="3" width="46.5"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1"/>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="B2" s="78" t="s">
-        <v>96</v>
-      </c>
-      <c r="C2" s="79"/>
+      <c r="B2" s="89" t="s">
+        <v>117</v>
+      </c>
+      <c r="C2" s="90"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="B3" s="80" t="s">
-        <v>97</v>
-      </c>
-      <c r="C3" s="81"/>
+      <c r="B3" s="91" t="s">
+        <v>118</v>
+      </c>
+      <c r="C3" s="5"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="B4" s="82" t="s">
-        <v>98</v>
-      </c>
-      <c r="C4" s="83" t="s">
-        <v>99</v>
+      <c r="B4" s="92" t="s">
+        <v>119</v>
+      </c>
+      <c r="C4" s="93" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="B5" s="84" t="s">
-        <v>100</v>
-      </c>
-      <c r="C5" s="85" t="s">
-        <v>101</v>
+      <c r="B5" s="94" t="s">
+        <v>121</v>
+      </c>
+      <c r="C5" s="95" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="B6" s="84" t="s">
-        <v>102</v>
-      </c>
-      <c r="C6" s="85" t="s">
-        <v>103</v>
+      <c r="B6" s="94" t="s">
+        <v>123</v>
+      </c>
+      <c r="C6" s="95" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="B7" s="84" t="s">
-        <v>104</v>
-      </c>
-      <c r="C7" s="85" t="s">
-        <v>105</v>
+      <c r="B7" s="94" t="s">
+        <v>125</v>
+      </c>
+      <c r="C7" s="95" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="B8" s="84" t="s">
-        <v>106</v>
-      </c>
-      <c r="C8" s="85" t="s">
-        <v>107</v>
+      <c r="B8" s="94" t="s">
+        <v>126</v>
+      </c>
+      <c r="C8" s="95" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="B9" s="84" t="s">
-        <v>108</v>
-      </c>
-      <c r="C9" s="85" t="s">
-        <v>109</v>
+      <c r="B9" s="94" t="s">
+        <v>128</v>
+      </c>
+      <c r="C9" s="95" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="B10" s="84" t="s">
-        <v>110</v>
-      </c>
-      <c r="C10" s="85" t="s">
-        <v>101</v>
+      <c r="B10" s="94" t="s">
+        <v>129</v>
+      </c>
+      <c r="C10" s="95" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="B11" s="86" t="s">
-        <v>111</v>
-      </c>
-      <c r="C11" s="87" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="12" ht="15.75" customHeight="1"/>
+      <c r="B11" s="94" t="s">
+        <v>131</v>
+      </c>
+      <c r="C11" s="95" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="12" ht="15.75" customHeight="1">
+      <c r="B12" s="96" t="s">
+        <v>132</v>
+      </c>
+      <c r="C12" s="97" t="s">
+        <v>133</v>
+      </c>
+    </row>
     <row r="13" ht="15.75" customHeight="1"/>
     <row r="14" ht="15.75" customHeight="1"/>
     <row r="15" ht="15.75" customHeight="1"/>
